--- a/interface_documents/interface_out.xlsx
+++ b/interface_documents/interface_out.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="8325"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5943" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8826" uniqueCount="619">
   <si>
     <t>-</t>
   </si>
@@ -1515,6 +1515,9 @@
     <t>processFile(ID), processReceivedFiles(ID)</t>
   </si>
   <si>
+    <t>java:global/EnhancesysManagement/IntegrationServices/DWHDataFeedMerger!com.enhancesys.integration.services.interfaces.merger.CSVMerger</t>
+  </si>
+  <si>
     <t>SCHEDULAR_FOR_PROCESS_FILE_1138=0 0 2 * * ? *</t>
   </si>
   <si>
@@ -1557,9 +1560,6 @@
     <t>INTDW020 - Registration Feed (ACT2)</t>
   </si>
   <si>
-    <t>java:global/EnhancesysManagement/IntegrationServices/DWHDataFeedMerger!com.enhancesys.integration.services.interfaces.merger.CSVMerger</t>
-  </si>
-  <si>
     <t>SCHEDULAR_FOR_PROCESS_FILE_1146=0 30 2 * * ? *</t>
   </si>
   <si>
@@ -1587,18 +1587,18 @@
     <t>java:global/EnhancesysManagement/IntegrationServices/UPLOADRejectionFilePreparation!com.enhancesys.integration.services.interfaces.rejection.RejectionFilePreparation</t>
   </si>
   <si>
-    <t>INTDW023 - Primary MOBO</t>
+    <t>INTHDP018 - Stock Taking Activity</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1152=0 0 * * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PULLDATA_FROM_POSTGERS_1152=0 30 1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22 * * ? *</t>
   </si>
   <si>
     <t>INTDW024 - Secondary MOBO</t>
   </si>
   <si>
-    <t>INTDW025 - Tertiary MOBO</t>
-  </si>
-  <si>
-    <t>INTDW026 - Surviavability</t>
-  </si>
-  <si>
     <t>DAILY_DUMP - Outlet Sales</t>
   </si>
   <si>
@@ -1629,7 +1629,7 @@
     <t>SCHEDULAR_FOR_PULLDATA_FROM_POSTGERS_1158=0 30 6 * * ? *</t>
   </si>
   <si>
-    <t>INTDWH020 – Quality of Acquisition</t>
+    <t>INTDWH020 - Quality of Acquisition</t>
   </si>
   <si>
     <t>SCHEDULAR_FOR_PROCESS_FILE_1159=0 30 2 1 * ? *</t>
@@ -1650,17 +1650,243 @@
     <t>PJP Planned Calls Dump</t>
   </si>
   <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1162=0 30 3 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PULLDATA_FROM_POSTGERS_1162=0 0 3 * * ? *</t>
+  </si>
+  <si>
     <t>INTTNM007 - Query Stock</t>
   </si>
   <si>
     <t>INTTNM008 - Reserve Stock</t>
+  </si>
+  <si>
+    <t>INTHDP001 - Site Mapping</t>
+  </si>
+  <si>
+    <t>java:global/EnhancesysManagement/IntegrationServices/KPIMasterProcessor!com.enhancesys.integration.services.interfaces.merger.CSVMerger</t>
+  </si>
+  <si>
+    <t>java:global/EnhancesysManagement/IntegrationServices/KpiMasterRejectionFilePreparation!com.enhancesys.integration.services.interfaces.rejection.RejectionFilePreparation</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1165=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1165=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1165=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP002 - Primary MOBO</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1166=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1166=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1166=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP003 - Secondary MOBO</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1167=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1167=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1167=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP004 - Daily SIM Selling Outlet (SSO)</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1168=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1168=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1168=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP005 - RGU-GA with Injection</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1169=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1169=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1169=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP006 - Tertiary Sales</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1170=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1170=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1170=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP007 - Organization MOBO Balance</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1171=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1171=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1171=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP008 - Prepaid Service Revenue</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1172=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1172=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1172=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP009 - MOBO Usage Revenue</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1173=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1173=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1173=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP010 - Acquisition Revenue</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1174=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1174=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1174=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP011 - Low revenue Sites</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1175=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1175=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1175=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP012 - Sites with RGU-GA</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1176=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1176=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1176=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP013 - Cross Selling Cluster Reload</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1177=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1177=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP014 - Cross Selling Area Data Package</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1178=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1178=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1178=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP015 - Outlet Program Achiever</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1179=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1179=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1179=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP016 - Ontime Allocation Payment</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1180=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1180=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1180=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP017 - URO 20K</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1181=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1181=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1181=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP018 - Outlet SP Tagging</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1182=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1182=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1182=0 0 5 * * ? *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2540,23 +2766,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM350"/>
+  <dimension ref="A1:AM351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AG164" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL166" sqref="AL166"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="120.7109375" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" customWidth="1"/>
-    <col min="6" max="14" width="30.7109375" customWidth="1"/>
-    <col min="15" max="39" width="25.7109375" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="35.7109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="37.42578125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="40.7109375" collapsed="false"/>
+    <col min="6" max="14" customWidth="true" width="30.7109375" collapsed="false"/>
+    <col min="15" max="39" customWidth="true" width="25.7109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2679,11 +2905,11 @@
       </c>
     </row>
     <row r="2" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1001</v>
-      </c>
-      <c r="B2" s="2">
-        <v>101</v>
+      <c r="A2" s="2" t="n">
+        <v>1001.0</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>101.0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>40</v>
@@ -2793,16 +3019,16 @@
       <c r="AL2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM2" s="1">
-        <v>1001</v>
+      <c r="AM2" s="1" t="n">
+        <v>1001.0</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1002</v>
-      </c>
-      <c r="B3" s="2">
-        <v>101</v>
+      <c r="A3" s="2" t="n">
+        <v>1002.0</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>101.0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>40</v>
@@ -2912,16 +3138,16 @@
       <c r="AL3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM3" s="1">
-        <v>1002</v>
+      <c r="AM3" s="1" t="n">
+        <v>1002.0</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1003</v>
-      </c>
-      <c r="B4" s="2">
-        <v>102</v>
+      <c r="A4" s="2" t="n">
+        <v>1003.0</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>102.0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>55</v>
@@ -3031,16 +3257,16 @@
       <c r="AL4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM4" s="1">
-        <v>1003</v>
+      <c r="AM4" s="1" t="n">
+        <v>1003.0</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1004</v>
-      </c>
-      <c r="B5" s="2">
-        <v>102</v>
+      <c r="A5" s="2" t="n">
+        <v>1004.0</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>102.0</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>55</v>
@@ -3150,16 +3376,16 @@
       <c r="AL5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM5" s="1">
-        <v>1004</v>
+      <c r="AM5" s="1" t="n">
+        <v>1004.0</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>1005</v>
-      </c>
-      <c r="B6" s="2">
-        <v>103</v>
+      <c r="A6" s="2" t="n">
+        <v>1005.0</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>103.0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -3269,16 +3495,16 @@
       <c r="AL6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM6" s="1">
-        <v>1005</v>
+      <c r="AM6" s="1" t="n">
+        <v>1005.0</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1006</v>
-      </c>
-      <c r="B7" s="2">
-        <v>103</v>
+      <c r="A7" s="2" t="n">
+        <v>1006.0</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>103.0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>61</v>
@@ -3388,16 +3614,16 @@
       <c r="AL7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM7" s="1">
-        <v>1006</v>
+      <c r="AM7" s="1" t="n">
+        <v>1006.0</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>1007</v>
-      </c>
-      <c r="B8" s="2">
-        <v>104</v>
+      <c r="A8" s="2" t="n">
+        <v>1007.0</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>104.0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>67</v>
@@ -3507,16 +3733,16 @@
       <c r="AL8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM8" s="1">
-        <v>1007</v>
+      <c r="AM8" s="1" t="n">
+        <v>1007.0</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1008</v>
-      </c>
-      <c r="B9" s="2">
-        <v>104</v>
+      <c r="A9" s="2" t="n">
+        <v>1008.0</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>104.0</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>67</v>
@@ -3626,16 +3852,16 @@
       <c r="AL9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM9" s="1">
-        <v>1008</v>
+      <c r="AM9" s="1" t="n">
+        <v>1008.0</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>1009</v>
-      </c>
-      <c r="B10" s="2">
-        <v>105</v>
+      <c r="A10" s="2" t="n">
+        <v>1009.0</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>105.0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>73</v>
@@ -3745,16 +3971,16 @@
       <c r="AL10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM10" s="1">
-        <v>1009</v>
+      <c r="AM10" s="1" t="n">
+        <v>1009.0</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>1010</v>
-      </c>
-      <c r="B11" s="2">
-        <v>105</v>
+      <c r="A11" s="2" t="n">
+        <v>1010.0</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>105.0</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>73</v>
@@ -3864,16 +4090,16 @@
       <c r="AL11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM11" s="1">
-        <v>1010</v>
+      <c r="AM11" s="1" t="n">
+        <v>1010.0</v>
       </c>
     </row>
     <row r="12" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>1011</v>
-      </c>
-      <c r="B12" s="2">
-        <v>106</v>
+      <c r="A12" s="2" t="n">
+        <v>1011.0</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>106.0</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>78</v>
@@ -3983,16 +4209,16 @@
       <c r="AL12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM12" s="1">
-        <v>1011</v>
+      <c r="AM12" s="1" t="n">
+        <v>1011.0</v>
       </c>
     </row>
     <row r="13" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>1012</v>
-      </c>
-      <c r="B13" s="2">
-        <v>106</v>
+      <c r="A13" s="2" t="n">
+        <v>1012.0</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>106.0</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>78</v>
@@ -4102,16 +4328,16 @@
       <c r="AL13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM13" s="1">
-        <v>1012</v>
+      <c r="AM13" s="1" t="n">
+        <v>1012.0</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>1013</v>
-      </c>
-      <c r="B14" s="2">
-        <v>107</v>
+      <c r="A14" s="2" t="n">
+        <v>1013.0</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>107.0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>83</v>
@@ -4221,16 +4447,16 @@
       <c r="AL14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM14" s="1">
-        <v>1013</v>
+      <c r="AM14" s="1" t="n">
+        <v>1013.0</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>1014</v>
-      </c>
-      <c r="B15" s="2">
-        <v>107</v>
+      <c r="A15" s="2" t="n">
+        <v>1014.0</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>107.0</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>83</v>
@@ -4340,16 +4566,16 @@
       <c r="AL15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM15" s="1">
-        <v>1014</v>
+      <c r="AM15" s="1" t="n">
+        <v>1014.0</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>1015</v>
-      </c>
-      <c r="B16" s="2">
-        <v>108</v>
+      <c r="A16" s="2" t="n">
+        <v>1015.0</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>108.0</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>88</v>
@@ -4459,16 +4685,16 @@
       <c r="AL16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM16" s="1">
-        <v>1015</v>
+      <c r="AM16" s="1" t="n">
+        <v>1015.0</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>1016</v>
-      </c>
-      <c r="B17" s="2">
-        <v>108</v>
+      <c r="A17" s="2" t="n">
+        <v>1016.0</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>108.0</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>88</v>
@@ -4578,16 +4804,16 @@
       <c r="AL17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM17" s="1">
-        <v>1016</v>
+      <c r="AM17" s="1" t="n">
+        <v>1016.0</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>1017</v>
-      </c>
-      <c r="B18" s="2">
-        <v>109</v>
+      <c r="A18" s="2" t="n">
+        <v>1017.0</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>109.0</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>92</v>
@@ -4697,16 +4923,16 @@
       <c r="AL18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM18" s="1">
-        <v>1017</v>
+      <c r="AM18" s="1" t="n">
+        <v>1017.0</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B19" s="2">
-        <v>110</v>
+      <c r="A19" s="2" t="n">
+        <v>1018.0</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>110.0</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>98</v>
@@ -4816,16 +5042,16 @@
       <c r="AL19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AM19" s="1">
-        <v>1018</v>
+      <c r="AM19" s="1" t="n">
+        <v>1018.0</v>
       </c>
     </row>
     <row r="20" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>1019</v>
-      </c>
-      <c r="B20" s="2">
-        <v>111</v>
+      <c r="A20" s="2" t="n">
+        <v>1019.0</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>111.0</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>106</v>
@@ -4935,16 +5161,16 @@
       <c r="AL20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AM20" s="1">
-        <v>1019</v>
+      <c r="AM20" s="1" t="n">
+        <v>1019.0</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>1020</v>
-      </c>
-      <c r="B21" s="2">
-        <v>112</v>
+      <c r="A21" s="2" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>112.0</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>110</v>
@@ -5054,16 +5280,16 @@
       <c r="AL21" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AM21" s="1">
-        <v>1020</v>
+      <c r="AM21" s="1" t="n">
+        <v>1020.0</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>1021</v>
-      </c>
-      <c r="B22" s="2">
-        <v>113</v>
+      <c r="A22" s="2" t="n">
+        <v>1021.0</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>113.0</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>114</v>
@@ -5173,16 +5399,16 @@
       <c r="AL22" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AM22" s="1">
-        <v>1021</v>
+      <c r="AM22" s="1" t="n">
+        <v>1021.0</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>1022</v>
-      </c>
-      <c r="B23" s="2">
-        <v>114</v>
+      <c r="A23" s="2" t="n">
+        <v>1022.0</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>114.0</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>118</v>
@@ -5292,16 +5518,16 @@
       <c r="AL23" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AM23" s="1">
-        <v>1022</v>
+      <c r="AM23" s="1" t="n">
+        <v>1022.0</v>
       </c>
     </row>
     <row r="24" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>1023</v>
-      </c>
-      <c r="B24" s="2">
-        <v>115</v>
+      <c r="A24" s="2" t="n">
+        <v>1023.0</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>115.0</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>122</v>
@@ -5411,16 +5637,16 @@
       <c r="AL24" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AM24" s="1">
-        <v>1023</v>
+      <c r="AM24" s="1" t="n">
+        <v>1023.0</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>1024</v>
-      </c>
-      <c r="B25" s="2">
-        <v>116</v>
+      <c r="A25" s="2" t="n">
+        <v>1024.0</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>116.0</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>126</v>
@@ -5530,16 +5756,16 @@
       <c r="AL25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM25" s="1">
-        <v>1024</v>
+      <c r="AM25" s="1" t="n">
+        <v>1024.0</v>
       </c>
     </row>
     <row r="26" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>1025</v>
-      </c>
-      <c r="B26" s="2">
-        <v>117</v>
+      <c r="A26" s="2" t="n">
+        <v>1025.0</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>117.0</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>130</v>
@@ -5649,16 +5875,16 @@
       <c r="AL26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM26" s="1">
-        <v>1025</v>
+      <c r="AM26" s="1" t="n">
+        <v>1025.0</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>1026</v>
-      </c>
-      <c r="B27" s="2">
-        <v>117</v>
+      <c r="A27" s="2" t="n">
+        <v>1026.0</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>117.0</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>130</v>
@@ -5768,16 +5994,16 @@
       <c r="AL27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM27" s="1">
-        <v>1026</v>
+      <c r="AM27" s="1" t="n">
+        <v>1026.0</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>1027</v>
-      </c>
-      <c r="B28" s="2">
-        <v>118</v>
+      <c r="A28" s="2" t="n">
+        <v>1027.0</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>118.0</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>136</v>
@@ -5887,16 +6113,16 @@
       <c r="AL28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM28" s="1">
-        <v>1027</v>
+      <c r="AM28" s="1" t="n">
+        <v>1027.0</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>1028</v>
-      </c>
-      <c r="B29" s="2">
-        <v>118</v>
+      <c r="A29" s="2" t="n">
+        <v>1028.0</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>118.0</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>136</v>
@@ -6006,16 +6232,16 @@
       <c r="AL29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM29" s="1">
-        <v>1028</v>
+      <c r="AM29" s="1" t="n">
+        <v>1028.0</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>1029</v>
-      </c>
-      <c r="B30" s="2">
-        <v>119</v>
+      <c r="A30" s="2" t="n">
+        <v>1029.0</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>119.0</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>141</v>
@@ -6125,16 +6351,16 @@
       <c r="AL30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM30" s="1">
-        <v>1029</v>
+      <c r="AM30" s="1" t="n">
+        <v>1029.0</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>1030</v>
-      </c>
-      <c r="B31" s="2">
-        <v>120</v>
+      <c r="A31" s="2" t="n">
+        <v>1030.0</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>120.0</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>145</v>
@@ -6244,16 +6470,16 @@
       <c r="AL31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM31" s="1">
-        <v>1030</v>
+      <c r="AM31" s="1" t="n">
+        <v>1030.0</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>1031</v>
-      </c>
-      <c r="B32" s="2">
-        <v>121</v>
+      <c r="A32" s="2" t="n">
+        <v>1031.0</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>121.0</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>150</v>
@@ -6363,16 +6589,16 @@
       <c r="AL32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM32" s="1">
-        <v>1031</v>
+      <c r="AM32" s="1" t="n">
+        <v>1031.0</v>
       </c>
     </row>
     <row r="33" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>1032</v>
-      </c>
-      <c r="B33" s="2">
-        <v>122</v>
+      <c r="A33" s="2" t="n">
+        <v>1032.0</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>122.0</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>153</v>
@@ -6482,16 +6708,16 @@
       <c r="AL33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM33" s="1">
-        <v>1032</v>
+      <c r="AM33" s="1" t="n">
+        <v>1032.0</v>
       </c>
     </row>
     <row r="34" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>1033</v>
-      </c>
-      <c r="B34" s="2">
-        <v>123</v>
+      <c r="A34" s="2" t="n">
+        <v>1033.0</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>123.0</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>156</v>
@@ -6601,16 +6827,16 @@
       <c r="AL34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM34" s="1">
-        <v>1033</v>
+      <c r="AM34" s="1" t="n">
+        <v>1033.0</v>
       </c>
     </row>
     <row r="35" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>1034</v>
-      </c>
-      <c r="B35" s="2">
-        <v>124</v>
+      <c r="A35" s="2" t="n">
+        <v>1034.0</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>124.0</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>159</v>
@@ -6720,16 +6946,16 @@
       <c r="AL35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM35" s="1">
-        <v>1034</v>
+      <c r="AM35" s="1" t="n">
+        <v>1034.0</v>
       </c>
     </row>
     <row r="36" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>1035</v>
-      </c>
-      <c r="B36" s="2">
-        <v>125</v>
+      <c r="A36" s="2" t="n">
+        <v>1035.0</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>125.0</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>162</v>
@@ -6839,16 +7065,16 @@
       <c r="AL36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM36" s="1">
-        <v>1035</v>
+      <c r="AM36" s="1" t="n">
+        <v>1035.0</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>1036</v>
-      </c>
-      <c r="B37" s="2">
-        <v>126</v>
+      <c r="A37" s="2" t="n">
+        <v>1036.0</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>126.0</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>165</v>
@@ -6958,16 +7184,16 @@
       <c r="AL37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM37" s="1">
-        <v>1036</v>
+      <c r="AM37" s="1" t="n">
+        <v>1036.0</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>1037</v>
-      </c>
-      <c r="B38" s="2">
-        <v>127</v>
+      <c r="A38" s="2" t="n">
+        <v>1037.0</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>127.0</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>168</v>
@@ -7077,16 +7303,16 @@
       <c r="AL38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM38" s="1">
-        <v>1037</v>
+      <c r="AM38" s="1" t="n">
+        <v>1037.0</v>
       </c>
     </row>
     <row r="39" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>1038</v>
-      </c>
-      <c r="B39" s="2">
-        <v>128</v>
+      <c r="A39" s="2" t="n">
+        <v>1038.0</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>128.0</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>171</v>
@@ -7196,16 +7422,16 @@
       <c r="AL39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM39" s="1">
-        <v>1038</v>
+      <c r="AM39" s="1" t="n">
+        <v>1038.0</v>
       </c>
     </row>
     <row r="40" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>1039</v>
-      </c>
-      <c r="B40" s="2">
-        <v>129</v>
+      <c r="A40" s="2" t="n">
+        <v>1039.0</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>129.0</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>174</v>
@@ -7315,16 +7541,16 @@
       <c r="AL40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM40" s="1">
-        <v>1039</v>
+      <c r="AM40" s="1" t="n">
+        <v>1039.0</v>
       </c>
     </row>
     <row r="41" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>1040</v>
-      </c>
-      <c r="B41" s="2">
-        <v>130</v>
+      <c r="A41" s="2" t="n">
+        <v>1040.0</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>130.0</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>177</v>
@@ -7434,16 +7660,16 @@
       <c r="AL41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM41" s="1">
-        <v>1040</v>
+      <c r="AM41" s="1" t="n">
+        <v>1040.0</v>
       </c>
     </row>
     <row r="42" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>1041</v>
-      </c>
-      <c r="B42" s="2">
-        <v>131</v>
+      <c r="A42" s="2" t="n">
+        <v>1041.0</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>131.0</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>180</v>
@@ -7553,16 +7779,16 @@
       <c r="AL42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM42" s="1">
-        <v>1041</v>
+      <c r="AM42" s="1" t="n">
+        <v>1041.0</v>
       </c>
     </row>
     <row r="43" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>1042</v>
-      </c>
-      <c r="B43" s="2">
-        <v>132</v>
+      <c r="A43" s="2" t="n">
+        <v>1042.0</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>132.0</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>183</v>
@@ -7672,16 +7898,16 @@
       <c r="AL43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM43" s="1">
-        <v>1042</v>
+      <c r="AM43" s="1" t="n">
+        <v>1042.0</v>
       </c>
     </row>
     <row r="44" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>1043</v>
-      </c>
-      <c r="B44" s="2">
-        <v>133</v>
+      <c r="A44" s="2" t="n">
+        <v>1043.0</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>133.0</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>186</v>
@@ -7791,16 +8017,16 @@
       <c r="AL44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM44" s="1">
-        <v>1043</v>
+      <c r="AM44" s="1" t="n">
+        <v>1043.0</v>
       </c>
     </row>
     <row r="45" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>1044</v>
-      </c>
-      <c r="B45" s="2">
-        <v>134</v>
+      <c r="A45" s="2" t="n">
+        <v>1044.0</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>134.0</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>189</v>
@@ -7910,16 +8136,16 @@
       <c r="AL45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM45" s="1">
-        <v>1044</v>
+      <c r="AM45" s="1" t="n">
+        <v>1044.0</v>
       </c>
     </row>
     <row r="46" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>1045</v>
-      </c>
-      <c r="B46" s="2">
-        <v>135</v>
+      <c r="A46" s="2" t="n">
+        <v>1045.0</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>135.0</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>192</v>
@@ -8029,16 +8255,16 @@
       <c r="AL46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM46" s="1">
-        <v>1045</v>
+      <c r="AM46" s="1" t="n">
+        <v>1045.0</v>
       </c>
     </row>
     <row r="47" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>1046</v>
-      </c>
-      <c r="B47" s="2">
-        <v>136</v>
+      <c r="A47" s="2" t="n">
+        <v>1046.0</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>136.0</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>195</v>
@@ -8148,16 +8374,16 @@
       <c r="AL47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM47" s="1">
-        <v>1046</v>
+      <c r="AM47" s="1" t="n">
+        <v>1046.0</v>
       </c>
     </row>
     <row r="48" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>1047</v>
-      </c>
-      <c r="B48" s="2">
-        <v>137</v>
+      <c r="A48" s="2" t="n">
+        <v>1047.0</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>137.0</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>198</v>
@@ -8267,16 +8493,16 @@
       <c r="AL48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM48" s="1">
-        <v>1047</v>
+      <c r="AM48" s="1" t="n">
+        <v>1047.0</v>
       </c>
     </row>
     <row r="49" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>1048</v>
-      </c>
-      <c r="B49" s="2">
-        <v>138</v>
+      <c r="A49" s="2" t="n">
+        <v>1048.0</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>138.0</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>201</v>
@@ -8386,16 +8612,16 @@
       <c r="AL49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM49" s="1">
-        <v>1048</v>
+      <c r="AM49" s="1" t="n">
+        <v>1048.0</v>
       </c>
     </row>
     <row r="50" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>1049</v>
-      </c>
-      <c r="B50" s="2">
-        <v>139</v>
+      <c r="A50" s="2" t="n">
+        <v>1049.0</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>139.0</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>204</v>
@@ -8505,16 +8731,16 @@
       <c r="AL50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM50" s="1">
-        <v>1049</v>
+      <c r="AM50" s="1" t="n">
+        <v>1049.0</v>
       </c>
     </row>
     <row r="51" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>1050</v>
-      </c>
-      <c r="B51" s="2">
-        <v>140</v>
+      <c r="A51" s="2" t="n">
+        <v>1050.0</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>140.0</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>207</v>
@@ -8624,16 +8850,16 @@
       <c r="AL51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM51" s="1">
-        <v>1050</v>
+      <c r="AM51" s="1" t="n">
+        <v>1050.0</v>
       </c>
     </row>
     <row r="52" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>1051</v>
-      </c>
-      <c r="B52" s="2">
-        <v>141</v>
+      <c r="A52" s="2" t="n">
+        <v>1051.0</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>141.0</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>210</v>
@@ -8743,16 +8969,16 @@
       <c r="AL52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM52" s="1">
-        <v>1051</v>
+      <c r="AM52" s="1" t="n">
+        <v>1051.0</v>
       </c>
     </row>
     <row r="53" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>1052</v>
-      </c>
-      <c r="B53" s="2">
-        <v>159</v>
+      <c r="A53" s="2" t="n">
+        <v>1052.0</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>159.0</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>215</v>
@@ -8862,16 +9088,16 @@
       <c r="AL53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM53" s="1">
-        <v>1052</v>
+      <c r="AM53" s="1" t="n">
+        <v>1052.0</v>
       </c>
     </row>
     <row r="54" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>1053</v>
-      </c>
-      <c r="B54" s="2">
-        <v>142</v>
+      <c r="A54" s="2" t="n">
+        <v>1053.0</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>142.0</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>218</v>
@@ -8981,16 +9207,16 @@
       <c r="AL54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM54" s="1">
-        <v>1053</v>
+      <c r="AM54" s="1" t="n">
+        <v>1053.0</v>
       </c>
     </row>
     <row r="55" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>1054</v>
-      </c>
-      <c r="B55" s="2">
-        <v>142</v>
+      <c r="A55" s="2" t="n">
+        <v>1054.0</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>142.0</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>218</v>
@@ -9100,16 +9326,16 @@
       <c r="AL55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM55" s="1">
-        <v>1054</v>
+      <c r="AM55" s="1" t="n">
+        <v>1054.0</v>
       </c>
     </row>
     <row r="56" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>1055</v>
-      </c>
-      <c r="B56" s="2">
-        <v>143</v>
+      <c r="A56" s="2" t="n">
+        <v>1055.0</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>143.0</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>222</v>
@@ -9219,16 +9445,16 @@
       <c r="AL56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM56" s="1">
-        <v>1055</v>
+      <c r="AM56" s="1" t="n">
+        <v>1055.0</v>
       </c>
     </row>
     <row r="57" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>1056</v>
-      </c>
-      <c r="B57" s="2">
-        <v>144</v>
+      <c r="A57" s="2" t="n">
+        <v>1056.0</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>144.0</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>225</v>
@@ -9338,16 +9564,16 @@
       <c r="AL57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM57" s="1">
-        <v>1056</v>
+      <c r="AM57" s="1" t="n">
+        <v>1056.0</v>
       </c>
     </row>
     <row r="58" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>1057</v>
-      </c>
-      <c r="B58" s="2">
-        <v>145</v>
+      <c r="A58" s="2" t="n">
+        <v>1057.0</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>145.0</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>228</v>
@@ -9457,16 +9683,16 @@
       <c r="AL58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM58" s="1">
-        <v>1057</v>
+      <c r="AM58" s="1" t="n">
+        <v>1057.0</v>
       </c>
     </row>
     <row r="59" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>1058</v>
-      </c>
-      <c r="B59" s="2">
-        <v>146</v>
+      <c r="A59" s="2" t="n">
+        <v>1058.0</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>146.0</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>231</v>
@@ -9576,16 +9802,16 @@
       <c r="AL59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM59" s="1">
-        <v>1058</v>
+      <c r="AM59" s="1" t="n">
+        <v>1058.0</v>
       </c>
     </row>
     <row r="60" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>1059</v>
-      </c>
-      <c r="B60" s="2">
-        <v>147</v>
+      <c r="A60" s="2" t="n">
+        <v>1059.0</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>147.0</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>234</v>
@@ -9695,16 +9921,16 @@
       <c r="AL60" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM60" s="1">
-        <v>1059</v>
+      <c r="AM60" s="1" t="n">
+        <v>1059.0</v>
       </c>
     </row>
     <row r="61" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>1060</v>
-      </c>
-      <c r="B61" s="2">
-        <v>148</v>
+      <c r="A61" s="2" t="n">
+        <v>1060.0</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>148.0</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>237</v>
@@ -9814,16 +10040,16 @@
       <c r="AL61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM61" s="1">
-        <v>1060</v>
+      <c r="AM61" s="1" t="n">
+        <v>1060.0</v>
       </c>
     </row>
     <row r="62" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>1061</v>
-      </c>
-      <c r="B62" s="2">
-        <v>149</v>
+      <c r="A62" s="2" t="n">
+        <v>1061.0</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>149.0</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>240</v>
@@ -9933,16 +10159,16 @@
       <c r="AL62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM62" s="1">
-        <v>1061</v>
+      <c r="AM62" s="1" t="n">
+        <v>1061.0</v>
       </c>
     </row>
     <row r="63" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>1062</v>
-      </c>
-      <c r="B63" s="2">
-        <v>150</v>
+      <c r="A63" s="2" t="n">
+        <v>1062.0</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>150.0</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>243</v>
@@ -10052,16 +10278,16 @@
       <c r="AL63" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM63" s="1">
-        <v>1062</v>
+      <c r="AM63" s="1" t="n">
+        <v>1062.0</v>
       </c>
     </row>
     <row r="64" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>1063</v>
-      </c>
-      <c r="B64" s="2">
-        <v>150</v>
+      <c r="A64" s="2" t="n">
+        <v>1063.0</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>150.0</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>243</v>
@@ -10171,16 +10397,16 @@
       <c r="AL64" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM64" s="1">
-        <v>1063</v>
+      <c r="AM64" s="1" t="n">
+        <v>1063.0</v>
       </c>
     </row>
     <row r="65" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>1064</v>
-      </c>
-      <c r="B65" s="2">
-        <v>151</v>
+      <c r="A65" s="2" t="n">
+        <v>1064.0</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>151.0</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>249</v>
@@ -10290,16 +10516,16 @@
       <c r="AL65" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM65" s="1">
-        <v>1064</v>
+      <c r="AM65" s="1" t="n">
+        <v>1064.0</v>
       </c>
     </row>
     <row r="66" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>1065</v>
-      </c>
-      <c r="B66" s="2">
-        <v>152</v>
+      <c r="A66" s="2" t="n">
+        <v>1065.0</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>152.0</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>254</v>
@@ -10409,16 +10635,16 @@
       <c r="AL66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM66" s="1">
-        <v>1065</v>
+      <c r="AM66" s="1" t="n">
+        <v>1065.0</v>
       </c>
     </row>
     <row r="67" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>1066</v>
-      </c>
-      <c r="B67" s="2">
-        <v>153</v>
+      <c r="A67" s="2" t="n">
+        <v>1066.0</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>153.0</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>258</v>
@@ -10528,16 +10754,16 @@
       <c r="AL67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM67" s="1">
-        <v>1066</v>
+      <c r="AM67" s="1" t="n">
+        <v>1066.0</v>
       </c>
     </row>
     <row r="68" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>1067</v>
-      </c>
-      <c r="B68" s="2">
-        <v>154</v>
+      <c r="A68" s="2" t="n">
+        <v>1067.0</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>154.0</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>264</v>
@@ -10647,16 +10873,16 @@
       <c r="AL68" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM68" s="1">
-        <v>1067</v>
+      <c r="AM68" s="1" t="n">
+        <v>1067.0</v>
       </c>
     </row>
     <row r="69" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>1068</v>
-      </c>
-      <c r="B69" s="2">
-        <v>155</v>
+      <c r="A69" s="2" t="n">
+        <v>1068.0</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>155.0</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>268</v>
@@ -10766,16 +10992,16 @@
       <c r="AL69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM69" s="1">
-        <v>1068</v>
+      <c r="AM69" s="1" t="n">
+        <v>1068.0</v>
       </c>
     </row>
     <row r="70" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>1069</v>
-      </c>
-      <c r="B70" s="2">
-        <v>156</v>
+      <c r="A70" s="2" t="n">
+        <v>1069.0</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>156.0</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>273</v>
@@ -10885,16 +11111,16 @@
       <c r="AL70" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM70" s="1">
-        <v>1069</v>
+      <c r="AM70" s="1" t="n">
+        <v>1069.0</v>
       </c>
     </row>
     <row r="71" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>1070</v>
-      </c>
-      <c r="B71" s="2">
-        <v>157</v>
+      <c r="A71" s="2" t="n">
+        <v>1070.0</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>157.0</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>278</v>
@@ -11004,16 +11230,16 @@
       <c r="AL71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM71" s="1">
-        <v>1070</v>
+      <c r="AM71" s="1" t="n">
+        <v>1070.0</v>
       </c>
     </row>
     <row r="72" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>1071</v>
-      </c>
-      <c r="B72" s="2">
-        <v>158</v>
+      <c r="A72" s="2" t="n">
+        <v>1071.0</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>158.0</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>283</v>
@@ -11123,16 +11349,16 @@
       <c r="AL72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM72" s="1">
-        <v>1071</v>
+      <c r="AM72" s="1" t="n">
+        <v>1071.0</v>
       </c>
     </row>
     <row r="73" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>1072</v>
-      </c>
-      <c r="B73" s="2">
-        <v>160</v>
+      <c r="A73" s="2" t="n">
+        <v>1072.0</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>160.0</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>287</v>
@@ -11242,16 +11468,16 @@
       <c r="AL73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM73" s="1">
-        <v>1072</v>
+      <c r="AM73" s="1" t="n">
+        <v>1072.0</v>
       </c>
     </row>
     <row r="74" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>1073</v>
-      </c>
-      <c r="B74" s="2">
-        <v>205</v>
+      <c r="A74" s="2" t="n">
+        <v>1073.0</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>205.0</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>291</v>
@@ -11361,16 +11587,16 @@
       <c r="AL74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM74" s="1">
-        <v>1073</v>
+      <c r="AM74" s="1" t="n">
+        <v>1073.0</v>
       </c>
     </row>
     <row r="75" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>1074</v>
-      </c>
-      <c r="B75" s="2">
-        <v>218</v>
+      <c r="A75" s="2" t="n">
+        <v>1074.0</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>218.0</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>295</v>
@@ -11480,16 +11706,16 @@
       <c r="AL75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM75" s="1">
-        <v>1074</v>
+      <c r="AM75" s="1" t="n">
+        <v>1074.0</v>
       </c>
     </row>
     <row r="76" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>1075</v>
-      </c>
-      <c r="B76" s="2">
-        <v>161</v>
+      <c r="A76" s="2" t="n">
+        <v>1075.0</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>161.0</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>299</v>
@@ -11599,16 +11825,16 @@
       <c r="AL76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM76" s="1">
-        <v>1075</v>
+      <c r="AM76" s="1" t="n">
+        <v>1075.0</v>
       </c>
     </row>
     <row r="77" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>1076</v>
-      </c>
-      <c r="B77" s="2">
-        <v>162</v>
+      <c r="A77" s="2" t="n">
+        <v>1076.0</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>162.0</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>303</v>
@@ -11718,16 +11944,16 @@
       <c r="AL77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM77" s="1">
-        <v>1076</v>
+      <c r="AM77" s="1" t="n">
+        <v>1076.0</v>
       </c>
     </row>
     <row r="78" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>1077</v>
-      </c>
-      <c r="B78" s="2">
-        <v>163</v>
+      <c r="A78" s="2" t="n">
+        <v>1077.0</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>163.0</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>308</v>
@@ -11837,16 +12063,16 @@
       <c r="AL78" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM78" s="1">
-        <v>1077</v>
+      <c r="AM78" s="1" t="n">
+        <v>1077.0</v>
       </c>
     </row>
     <row r="79" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>1078</v>
-      </c>
-      <c r="B79" s="2">
-        <v>164</v>
+      <c r="A79" s="2" t="n">
+        <v>1078.0</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>164.0</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>313</v>
@@ -11956,16 +12182,16 @@
       <c r="AL79" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM79" s="1">
-        <v>1078</v>
+      <c r="AM79" s="1" t="n">
+        <v>1078.0</v>
       </c>
     </row>
     <row r="80" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>1079</v>
-      </c>
-      <c r="B80" s="2">
-        <v>165</v>
+      <c r="A80" s="2" t="n">
+        <v>1079.0</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>165.0</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>317</v>
@@ -12075,16 +12301,16 @@
       <c r="AL80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM80" s="1">
-        <v>1079</v>
+      <c r="AM80" s="1" t="n">
+        <v>1079.0</v>
       </c>
     </row>
     <row r="81" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>1080</v>
-      </c>
-      <c r="B81" s="2">
-        <v>166</v>
+      <c r="A81" s="2" t="n">
+        <v>1080.0</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>166.0</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>321</v>
@@ -12194,16 +12420,16 @@
       <c r="AL81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM81" s="1">
-        <v>1080</v>
+      <c r="AM81" s="1" t="n">
+        <v>1080.0</v>
       </c>
     </row>
     <row r="82" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>1081</v>
-      </c>
-      <c r="B82" s="2">
-        <v>167</v>
+      <c r="A82" s="2" t="n">
+        <v>1081.0</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>167.0</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>325</v>
@@ -12313,16 +12539,16 @@
       <c r="AL82" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM82" s="1">
-        <v>1081</v>
+      <c r="AM82" s="1" t="n">
+        <v>1081.0</v>
       </c>
     </row>
     <row r="83" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>1082</v>
-      </c>
-      <c r="B83" s="2">
-        <v>168</v>
+      <c r="A83" s="2" t="n">
+        <v>1082.0</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>168.0</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>329</v>
@@ -12432,16 +12658,16 @@
       <c r="AL83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM83" s="1">
-        <v>1082</v>
+      <c r="AM83" s="1" t="n">
+        <v>1082.0</v>
       </c>
     </row>
     <row r="84" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>1083</v>
-      </c>
-      <c r="B84" s="2">
-        <v>169</v>
+      <c r="A84" s="2" t="n">
+        <v>1083.0</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>169.0</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>333</v>
@@ -12551,16 +12777,16 @@
       <c r="AL84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM84" s="1">
-        <v>1083</v>
+      <c r="AM84" s="1" t="n">
+        <v>1083.0</v>
       </c>
     </row>
     <row r="85" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>1084</v>
-      </c>
-      <c r="B85" s="2">
-        <v>170</v>
+      <c r="A85" s="2" t="n">
+        <v>1084.0</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>170.0</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>336</v>
@@ -12670,16 +12896,16 @@
       <c r="AL85" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM85" s="1">
-        <v>1084</v>
+      <c r="AM85" s="1" t="n">
+        <v>1084.0</v>
       </c>
     </row>
     <row r="86" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>1085</v>
-      </c>
-      <c r="B86" s="2">
-        <v>171</v>
+      <c r="A86" s="2" t="n">
+        <v>1085.0</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>171.0</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>339</v>
@@ -12789,16 +13015,16 @@
       <c r="AL86" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM86" s="1">
-        <v>1085</v>
+      <c r="AM86" s="1" t="n">
+        <v>1085.0</v>
       </c>
     </row>
     <row r="87" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>1086</v>
-      </c>
-      <c r="B87" s="2">
-        <v>172</v>
+      <c r="A87" s="2" t="n">
+        <v>1086.0</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>172.0</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>343</v>
@@ -12908,16 +13134,16 @@
       <c r="AL87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM87" s="1">
-        <v>1086</v>
+      <c r="AM87" s="1" t="n">
+        <v>1086.0</v>
       </c>
     </row>
     <row r="88" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>1087</v>
-      </c>
-      <c r="B88" s="2">
-        <v>173</v>
+      <c r="A88" s="2" t="n">
+        <v>1087.0</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>173.0</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>346</v>
@@ -13027,16 +13253,16 @@
       <c r="AL88" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM88" s="1">
-        <v>1087</v>
+      <c r="AM88" s="1" t="n">
+        <v>1087.0</v>
       </c>
     </row>
     <row r="89" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>1088</v>
-      </c>
-      <c r="B89" s="2">
-        <v>174</v>
+      <c r="A89" s="2" t="n">
+        <v>1088.0</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>174.0</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>349</v>
@@ -13146,16 +13372,16 @@
       <c r="AL89" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM89" s="1">
-        <v>1088</v>
+      <c r="AM89" s="1" t="n">
+        <v>1088.0</v>
       </c>
     </row>
     <row r="90" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>1089</v>
-      </c>
-      <c r="B90" s="2">
-        <v>175</v>
+      <c r="A90" s="2" t="n">
+        <v>1089.0</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>175.0</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>352</v>
@@ -13265,16 +13491,16 @@
       <c r="AL90" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM90" s="1">
-        <v>1089</v>
+      <c r="AM90" s="1" t="n">
+        <v>1089.0</v>
       </c>
     </row>
     <row r="91" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>1090</v>
-      </c>
-      <c r="B91" s="2">
-        <v>176</v>
+      <c r="A91" s="2" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>176.0</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>355</v>
@@ -13384,16 +13610,16 @@
       <c r="AL91" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM91" s="1">
-        <v>1090</v>
+      <c r="AM91" s="1" t="n">
+        <v>1090.0</v>
       </c>
     </row>
     <row r="92" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>1091</v>
-      </c>
-      <c r="B92" s="2">
-        <v>176</v>
+      <c r="A92" s="2" t="n">
+        <v>1091.0</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>176.0</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>355</v>
@@ -13503,16 +13729,16 @@
       <c r="AL92" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM92" s="1">
-        <v>1091</v>
+      <c r="AM92" s="1" t="n">
+        <v>1091.0</v>
       </c>
     </row>
     <row r="93" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>1092</v>
-      </c>
-      <c r="B93" s="2">
-        <v>177</v>
+      <c r="A93" s="2" t="n">
+        <v>1092.0</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>177.0</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>359</v>
@@ -13622,16 +13848,16 @@
       <c r="AL93" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM93" s="1">
-        <v>1092</v>
+      <c r="AM93" s="1" t="n">
+        <v>1092.0</v>
       </c>
     </row>
     <row r="94" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>1093</v>
-      </c>
-      <c r="B94" s="2">
-        <v>177</v>
+      <c r="A94" s="2" t="n">
+        <v>1093.0</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>177.0</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>359</v>
@@ -13741,16 +13967,16 @@
       <c r="AL94" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM94" s="1">
-        <v>1093</v>
+      <c r="AM94" s="1" t="n">
+        <v>1093.0</v>
       </c>
     </row>
     <row r="95" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>1094</v>
-      </c>
-      <c r="B95" s="2">
-        <v>178</v>
+      <c r="A95" s="2" t="n">
+        <v>1094.0</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>178.0</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>363</v>
@@ -13860,16 +14086,16 @@
       <c r="AL95" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM95" s="1">
-        <v>1094</v>
+      <c r="AM95" s="1" t="n">
+        <v>1094.0</v>
       </c>
     </row>
     <row r="96" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>1095</v>
-      </c>
-      <c r="B96" s="2">
-        <v>179</v>
+      <c r="A96" s="2" t="n">
+        <v>1095.0</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>179.0</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>366</v>
@@ -13979,16 +14205,16 @@
       <c r="AL96" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM96" s="1">
-        <v>1095</v>
+      <c r="AM96" s="1" t="n">
+        <v>1095.0</v>
       </c>
     </row>
     <row r="97" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>1096</v>
-      </c>
-      <c r="B97" s="2">
-        <v>180</v>
+      <c r="A97" s="2" t="n">
+        <v>1096.0</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>180.0</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>369</v>
@@ -14098,16 +14324,16 @@
       <c r="AL97" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM97" s="1">
-        <v>1096</v>
+      <c r="AM97" s="1" t="n">
+        <v>1096.0</v>
       </c>
     </row>
     <row r="98" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>1097</v>
-      </c>
-      <c r="B98" s="2">
-        <v>181</v>
+      <c r="A98" s="2" t="n">
+        <v>1097.0</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>181.0</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>372</v>
@@ -14217,16 +14443,16 @@
       <c r="AL98" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM98" s="1">
-        <v>1097</v>
+      <c r="AM98" s="1" t="n">
+        <v>1097.0</v>
       </c>
     </row>
     <row r="99" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>1098</v>
-      </c>
-      <c r="B99" s="2">
-        <v>182</v>
+      <c r="A99" s="2" t="n">
+        <v>1098.0</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>182.0</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>375</v>
@@ -14336,16 +14562,16 @@
       <c r="AL99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM99" s="1">
-        <v>1098</v>
+      <c r="AM99" s="1" t="n">
+        <v>1098.0</v>
       </c>
     </row>
     <row r="100" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>1099</v>
-      </c>
-      <c r="B100" s="2">
-        <v>183</v>
+      <c r="A100" s="2" t="n">
+        <v>1099.0</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>183.0</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>378</v>
@@ -14455,16 +14681,16 @@
       <c r="AL100" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM100" s="1">
-        <v>1099</v>
+      <c r="AM100" s="1" t="n">
+        <v>1099.0</v>
       </c>
     </row>
     <row r="101" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>1100</v>
-      </c>
-      <c r="B101" s="2">
-        <v>184</v>
+      <c r="A101" s="2" t="n">
+        <v>1100.0</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>184.0</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>381</v>
@@ -14574,16 +14800,16 @@
       <c r="AL101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM101" s="1">
-        <v>1100</v>
+      <c r="AM101" s="1" t="n">
+        <v>1100.0</v>
       </c>
     </row>
     <row r="102" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>1101</v>
-      </c>
-      <c r="B102" s="2">
-        <v>100</v>
+      <c r="A102" s="2" t="n">
+        <v>1101.0</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>100.0</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>384</v>
@@ -14693,16 +14919,16 @@
       <c r="AL102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM102" s="1">
-        <v>1101</v>
+      <c r="AM102" s="1" t="n">
+        <v>1101.0</v>
       </c>
     </row>
     <row r="103" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>1102</v>
-      </c>
-      <c r="B103" s="2">
-        <v>100</v>
+      <c r="A103" s="2" t="n">
+        <v>1102.0</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>100.0</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>384</v>
@@ -14812,16 +15038,16 @@
       <c r="AL103" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="AM103" s="1">
-        <v>1102</v>
+      <c r="AM103" s="1" t="n">
+        <v>1102.0</v>
       </c>
     </row>
     <row r="104" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>1103</v>
-      </c>
-      <c r="B104" s="2">
-        <v>185</v>
+      <c r="A104" s="2" t="n">
+        <v>1103.0</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>185.0</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>392</v>
@@ -14931,16 +15157,16 @@
       <c r="AL104" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM104" s="1">
-        <v>1103</v>
+      <c r="AM104" s="1" t="n">
+        <v>1103.0</v>
       </c>
     </row>
     <row r="105" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <v>1104</v>
-      </c>
-      <c r="B105" s="2">
-        <v>186</v>
+      <c r="A105" s="2" t="n">
+        <v>1104.0</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>186.0</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>395</v>
@@ -15050,16 +15276,16 @@
       <c r="AL105" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM105" s="1">
-        <v>1104</v>
+      <c r="AM105" s="1" t="n">
+        <v>1104.0</v>
       </c>
     </row>
     <row r="106" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>1105</v>
-      </c>
-      <c r="B106" s="2">
-        <v>187</v>
+      <c r="A106" s="2" t="n">
+        <v>1105.0</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>187.0</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>398</v>
@@ -15169,16 +15395,16 @@
       <c r="AL106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM106" s="1">
-        <v>1105</v>
+      <c r="AM106" s="1" t="n">
+        <v>1105.0</v>
       </c>
     </row>
     <row r="107" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>1106</v>
-      </c>
-      <c r="B107" s="2">
-        <v>188</v>
+      <c r="A107" s="2" t="n">
+        <v>1106.0</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>188.0</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>401</v>
@@ -15288,16 +15514,16 @@
       <c r="AL107" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM107" s="1">
-        <v>1106</v>
+      <c r="AM107" s="1" t="n">
+        <v>1106.0</v>
       </c>
     </row>
     <row r="108" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <v>1107</v>
-      </c>
-      <c r="B108" s="2">
-        <v>189</v>
+      <c r="A108" s="2" t="n">
+        <v>1107.0</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>189.0</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>404</v>
@@ -15407,16 +15633,16 @@
       <c r="AL108" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM108" s="1">
-        <v>1107</v>
+      <c r="AM108" s="1" t="n">
+        <v>1107.0</v>
       </c>
     </row>
     <row r="109" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>1108</v>
-      </c>
-      <c r="B109" s="2">
-        <v>190</v>
+      <c r="A109" s="2" t="n">
+        <v>1108.0</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>190.0</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>407</v>
@@ -15526,16 +15752,16 @@
       <c r="AL109" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM109" s="1">
-        <v>1108</v>
+      <c r="AM109" s="1" t="n">
+        <v>1108.0</v>
       </c>
     </row>
     <row r="110" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <v>1109</v>
-      </c>
-      <c r="B110" s="2">
-        <v>191</v>
+      <c r="A110" s="2" t="n">
+        <v>1109.0</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>191.0</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>410</v>
@@ -15645,16 +15871,16 @@
       <c r="AL110" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM110" s="1">
-        <v>1109</v>
+      <c r="AM110" s="1" t="n">
+        <v>1109.0</v>
       </c>
     </row>
     <row r="111" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>1110</v>
-      </c>
-      <c r="B111" s="2">
-        <v>192</v>
+      <c r="A111" s="2" t="n">
+        <v>1110.0</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>192.0</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>413</v>
@@ -15764,16 +15990,16 @@
       <c r="AL111" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM111" s="1">
-        <v>1110</v>
+      <c r="AM111" s="1" t="n">
+        <v>1110.0</v>
       </c>
     </row>
     <row r="112" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>1111</v>
-      </c>
-      <c r="B112" s="2">
-        <v>193</v>
+      <c r="A112" s="2" t="n">
+        <v>1111.0</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>193.0</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>416</v>
@@ -15883,16 +16109,16 @@
       <c r="AL112" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM112" s="1">
-        <v>1111</v>
+      <c r="AM112" s="1" t="n">
+        <v>1111.0</v>
       </c>
     </row>
     <row r="113" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <v>1112</v>
-      </c>
-      <c r="B113" s="2">
-        <v>194</v>
+      <c r="A113" s="2" t="n">
+        <v>1112.0</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>194.0</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>419</v>
@@ -16002,16 +16228,16 @@
       <c r="AL113" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM113" s="1">
-        <v>1112</v>
+      <c r="AM113" s="1" t="n">
+        <v>1112.0</v>
       </c>
     </row>
     <row r="114" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>1113</v>
-      </c>
-      <c r="B114" s="2">
-        <v>195</v>
+      <c r="A114" s="2" t="n">
+        <v>1113.0</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>195.0</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>422</v>
@@ -16121,16 +16347,16 @@
       <c r="AL114" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM114" s="1">
-        <v>1113</v>
+      <c r="AM114" s="1" t="n">
+        <v>1113.0</v>
       </c>
     </row>
     <row r="115" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>1114</v>
-      </c>
-      <c r="B115" s="2">
-        <v>196</v>
+      <c r="A115" s="2" t="n">
+        <v>1114.0</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>196.0</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>425</v>
@@ -16240,16 +16466,16 @@
       <c r="AL115" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM115" s="1">
-        <v>1114</v>
+      <c r="AM115" s="1" t="n">
+        <v>1114.0</v>
       </c>
     </row>
     <row r="116" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <v>1115</v>
-      </c>
-      <c r="B116" s="2">
-        <v>197</v>
+      <c r="A116" s="2" t="n">
+        <v>1115.0</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>197.0</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>428</v>
@@ -16359,16 +16585,16 @@
       <c r="AL116" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM116" s="1">
-        <v>1115</v>
+      <c r="AM116" s="1" t="n">
+        <v>1115.0</v>
       </c>
     </row>
     <row r="117" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
-        <v>1116</v>
-      </c>
-      <c r="B117" s="2">
-        <v>198</v>
+      <c r="A117" s="2" t="n">
+        <v>1116.0</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>198.0</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>431</v>
@@ -16478,16 +16704,16 @@
       <c r="AL117" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM117" s="1">
-        <v>1116</v>
+      <c r="AM117" s="1" t="n">
+        <v>1116.0</v>
       </c>
     </row>
     <row r="118" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <v>1117</v>
-      </c>
-      <c r="B118" s="2">
-        <v>199</v>
+      <c r="A118" s="2" t="n">
+        <v>1117.0</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>199.0</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>434</v>
@@ -16597,16 +16823,16 @@
       <c r="AL118" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM118" s="1">
-        <v>1117</v>
+      <c r="AM118" s="1" t="n">
+        <v>1117.0</v>
       </c>
     </row>
     <row r="119" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>1118</v>
-      </c>
-      <c r="B119" s="2">
-        <v>200</v>
+      <c r="A119" s="2" t="n">
+        <v>1118.0</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>200.0</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>437</v>
@@ -16716,16 +16942,16 @@
       <c r="AL119" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM119" s="1">
-        <v>1118</v>
+      <c r="AM119" s="1" t="n">
+        <v>1118.0</v>
       </c>
     </row>
     <row r="120" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
-        <v>1119</v>
-      </c>
-      <c r="B120" s="2">
-        <v>201</v>
+      <c r="A120" s="2" t="n">
+        <v>1119.0</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>201.0</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>440</v>
@@ -16835,16 +17061,16 @@
       <c r="AL120" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM120" s="1">
-        <v>1119</v>
+      <c r="AM120" s="1" t="n">
+        <v>1119.0</v>
       </c>
     </row>
     <row r="121" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
-        <v>1120</v>
-      </c>
-      <c r="B121" s="2">
-        <v>202</v>
+      <c r="A121" s="2" t="n">
+        <v>1120.0</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>202.0</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>443</v>
@@ -16954,16 +17180,16 @@
       <c r="AL121" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM121" s="1">
-        <v>1120</v>
+      <c r="AM121" s="1" t="n">
+        <v>1120.0</v>
       </c>
     </row>
     <row r="122" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
-        <v>1121</v>
-      </c>
-      <c r="B122" s="2">
-        <v>203</v>
+      <c r="A122" s="2" t="n">
+        <v>1121.0</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>203.0</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>446</v>
@@ -17073,16 +17299,16 @@
       <c r="AL122" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM122" s="1">
-        <v>1121</v>
+      <c r="AM122" s="1" t="n">
+        <v>1121.0</v>
       </c>
     </row>
     <row r="123" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="6">
-        <v>1122</v>
-      </c>
-      <c r="B123" s="2">
-        <v>204</v>
+      <c r="A123" s="6" t="n">
+        <v>1122.0</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>204.0</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>449</v>
@@ -17192,16 +17418,16 @@
       <c r="AL123" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM123" s="1">
-        <v>1122</v>
+      <c r="AM123" s="1" t="n">
+        <v>1122.0</v>
       </c>
     </row>
     <row r="124" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
-        <v>1123</v>
-      </c>
-      <c r="B124" s="2">
-        <v>206</v>
+      <c r="A124" s="2" t="n">
+        <v>1123.0</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>206.0</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>452</v>
@@ -17311,16 +17537,16 @@
       <c r="AL124" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM124" s="1">
-        <v>1123</v>
+      <c r="AM124" s="1" t="n">
+        <v>1123.0</v>
       </c>
     </row>
     <row r="125" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
-        <v>1124</v>
-      </c>
-      <c r="B125" s="2">
-        <v>207</v>
+      <c r="A125" s="2" t="n">
+        <v>1124.0</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>207.0</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>455</v>
@@ -17430,16 +17656,16 @@
       <c r="AL125" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM125" s="1">
-        <v>1124</v>
+      <c r="AM125" s="1" t="n">
+        <v>1124.0</v>
       </c>
     </row>
     <row r="126" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
-        <v>1125</v>
-      </c>
-      <c r="B126" s="2">
-        <v>208</v>
+      <c r="A126" s="2" t="n">
+        <v>1125.0</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>208.0</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>458</v>
@@ -17549,16 +17775,16 @@
       <c r="AL126" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM126" s="1">
-        <v>1125</v>
+      <c r="AM126" s="1" t="n">
+        <v>1125.0</v>
       </c>
     </row>
     <row r="127" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
-        <v>1126</v>
-      </c>
-      <c r="B127" s="2">
-        <v>209</v>
+      <c r="A127" s="2" t="n">
+        <v>1126.0</v>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>209.0</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>461</v>
@@ -17668,16 +17894,16 @@
       <c r="AL127" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM127" s="1">
-        <v>1126</v>
+      <c r="AM127" s="1" t="n">
+        <v>1126.0</v>
       </c>
     </row>
     <row r="128" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
-        <v>1127</v>
-      </c>
-      <c r="B128" s="2">
-        <v>210</v>
+      <c r="A128" s="2" t="n">
+        <v>1127.0</v>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>210.0</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>464</v>
@@ -17787,16 +18013,16 @@
       <c r="AL128" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM128" s="1">
-        <v>1127</v>
+      <c r="AM128" s="1" t="n">
+        <v>1127.0</v>
       </c>
     </row>
     <row r="129" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
-        <v>1128</v>
-      </c>
-      <c r="B129" s="2">
-        <v>211</v>
+      <c r="A129" s="2" t="n">
+        <v>1128.0</v>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>211.0</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>467</v>
@@ -17906,16 +18132,16 @@
       <c r="AL129" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM129" s="1">
-        <v>1128</v>
+      <c r="AM129" s="1" t="n">
+        <v>1128.0</v>
       </c>
     </row>
     <row r="130" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
-        <v>1129</v>
-      </c>
-      <c r="B130" s="2">
-        <v>212</v>
+      <c r="A130" s="2" t="n">
+        <v>1129.0</v>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>212.0</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>470</v>
@@ -18025,16 +18251,16 @@
       <c r="AL130" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM130" s="1">
-        <v>1129</v>
+      <c r="AM130" s="1" t="n">
+        <v>1129.0</v>
       </c>
     </row>
     <row r="131" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
-        <v>1130</v>
-      </c>
-      <c r="B131" s="2">
-        <v>213</v>
+      <c r="A131" s="2" t="n">
+        <v>1130.0</v>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>213.0</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>473</v>
@@ -18144,16 +18370,16 @@
       <c r="AL131" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM131" s="1">
-        <v>1130</v>
+      <c r="AM131" s="1" t="n">
+        <v>1130.0</v>
       </c>
     </row>
     <row r="132" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
-        <v>1131</v>
-      </c>
-      <c r="B132" s="2">
-        <v>214</v>
+      <c r="A132" s="2" t="n">
+        <v>1131.0</v>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>214.0</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>476</v>
@@ -18263,16 +18489,16 @@
       <c r="AL132" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM132" s="1">
-        <v>1131</v>
+      <c r="AM132" s="1" t="n">
+        <v>1131.0</v>
       </c>
     </row>
     <row r="133" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
-        <v>1132</v>
-      </c>
-      <c r="B133" s="2">
-        <v>215</v>
+      <c r="A133" s="2" t="n">
+        <v>1132.0</v>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>215.0</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>480</v>
@@ -18382,16 +18608,16 @@
       <c r="AL133" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM133" s="1">
-        <v>1132</v>
+      <c r="AM133" s="1" t="n">
+        <v>1132.0</v>
       </c>
     </row>
     <row r="134" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
-        <v>1133</v>
-      </c>
-      <c r="B134" s="2">
-        <v>216</v>
+      <c r="A134" s="2" t="n">
+        <v>1133.0</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>216.0</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>483</v>
@@ -18501,16 +18727,16 @@
       <c r="AL134" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM134" s="1">
-        <v>1133</v>
+      <c r="AM134" s="1" t="n">
+        <v>1133.0</v>
       </c>
     </row>
     <row r="135" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
-        <v>1134</v>
-      </c>
-      <c r="B135" s="2">
-        <v>217</v>
+      <c r="A135" s="2" t="n">
+        <v>1134.0</v>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>217.0</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>486</v>
@@ -18620,16 +18846,16 @@
       <c r="AL135" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM135" s="1">
-        <v>1134</v>
+      <c r="AM135" s="1" t="n">
+        <v>1134.0</v>
       </c>
     </row>
     <row r="136" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
-        <v>1135</v>
-      </c>
-      <c r="B136" s="2">
-        <v>219</v>
+      <c r="A136" s="2" t="n">
+        <v>1135.0</v>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>219.0</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>489</v>
@@ -18739,16 +18965,16 @@
       <c r="AL136" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM136" s="1">
-        <v>1135</v>
+      <c r="AM136" s="1" t="n">
+        <v>1135.0</v>
       </c>
     </row>
     <row r="137" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
-        <v>1136</v>
-      </c>
-      <c r="B137" s="2">
-        <v>220</v>
+      <c r="A137" s="2" t="n">
+        <v>1136.0</v>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>220.0</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>492</v>
@@ -18858,16 +19084,16 @@
       <c r="AL137" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM137" s="1">
-        <v>1136</v>
+      <c r="AM137" s="1" t="n">
+        <v>1136.0</v>
       </c>
     </row>
     <row r="138" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
-        <v>1137</v>
-      </c>
-      <c r="B138" s="2">
-        <v>221</v>
+      <c r="A138" s="2" t="n">
+        <v>1137.0</v>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>221.0</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>494</v>
@@ -18977,16 +19203,16 @@
       <c r="AL138" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM138" s="1">
-        <v>1137</v>
+      <c r="AM138" s="1" t="n">
+        <v>1137.0</v>
       </c>
     </row>
     <row r="139" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
-        <v>1138</v>
-      </c>
-      <c r="B139" s="2">
-        <v>222</v>
+      <c r="A139" s="2" t="n">
+        <v>1138.0</v>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>222.0</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>495</v>
@@ -19010,7 +19236,7 @@
         <v>0</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>250</v>
+        <v>497</v>
       </c>
       <c r="K139" s="1" t="s">
         <v>0</v>
@@ -19019,7 +19245,7 @@
         <v>0</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="N139" s="1" t="s">
         <v>0</v>
@@ -19070,10 +19296,10 @@
         <v>0</v>
       </c>
       <c r="AD139" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AE139" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AF139" s="1" t="s">
         <v>0</v>
@@ -19096,16 +19322,16 @@
       <c r="AL139" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM139" s="1">
-        <v>1138</v>
+      <c r="AM139" s="1" t="n">
+        <v>1138.0</v>
       </c>
     </row>
     <row r="140" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
-        <v>1139</v>
-      </c>
-      <c r="B140" s="2">
-        <v>222</v>
+      <c r="A140" s="2" t="n">
+        <v>1139.0</v>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>222.0</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>495</v>
@@ -19215,25 +19441,25 @@
       <c r="AL140" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM140" s="1">
-        <v>1139</v>
+      <c r="AM140" s="1" t="n">
+        <v>1139.0</v>
       </c>
     </row>
     <row r="141" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
-        <v>1140</v>
-      </c>
-      <c r="B141" s="2">
-        <v>224</v>
+      <c r="A141" s="2" t="n">
+        <v>1140.0</v>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>224.0</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>0</v>
@@ -19334,25 +19560,25 @@
       <c r="AL141" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM141" s="1">
-        <v>1140</v>
+      <c r="AM141" s="1" t="n">
+        <v>1140.0</v>
       </c>
     </row>
     <row r="142" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
-        <v>1141</v>
-      </c>
-      <c r="B142" s="2">
-        <v>225</v>
+      <c r="A142" s="2" t="n">
+        <v>1141.0</v>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>225.0</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>0</v>
@@ -19453,25 +19679,25 @@
       <c r="AL142" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM142" s="1">
-        <v>1141</v>
+      <c r="AM142" s="1" t="n">
+        <v>1141.0</v>
       </c>
     </row>
     <row r="143" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
-        <v>1142</v>
-      </c>
-      <c r="B143" s="2">
-        <v>226</v>
+      <c r="A143" s="2" t="n">
+        <v>1142.0</v>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>226.0</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>0</v>
@@ -19572,19 +19798,19 @@
       <c r="AL143" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM143" s="1">
-        <v>1142</v>
+      <c r="AM143" s="1" t="n">
+        <v>1142.0</v>
       </c>
     </row>
     <row r="144" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
-        <v>1143</v>
-      </c>
-      <c r="B144" s="2">
-        <v>223</v>
+      <c r="A144" s="2" t="n">
+        <v>1143.0</v>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>223.0</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>41</v>
@@ -19605,7 +19831,7 @@
         <v>0</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>250</v>
+        <v>497</v>
       </c>
       <c r="K144" s="1" t="s">
         <v>0</v>
@@ -19614,7 +19840,7 @@
         <v>0</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="N144" s="1" t="s">
         <v>0</v>
@@ -19665,45 +19891,45 @@
         <v>0</v>
       </c>
       <c r="AD144" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="AE144" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="AF144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM144" s="1" t="n">
+        <v>1143.0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="n">
+        <v>1144.0</v>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="AE144" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="AF144" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG144" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH144" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI144" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ144" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK144" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL144" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM144" s="1">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
-        <v>1144</v>
-      </c>
-      <c r="B145" s="2">
-        <v>223</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>51</v>
@@ -19810,19 +20036,19 @@
       <c r="AL145" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM145" s="1">
-        <v>1144</v>
+      <c r="AM145" s="1" t="n">
+        <v>1144.0</v>
       </c>
     </row>
     <row r="146" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
-        <v>1145</v>
-      </c>
-      <c r="B146" s="2">
-        <v>227</v>
+      <c r="A146" s="2" t="n">
+        <v>1145.0</v>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>227.0</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>93</v>
@@ -19903,7 +20129,7 @@
         <v>0</v>
       </c>
       <c r="AD146" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AE146" s="1" t="s">
         <v>0</v>
@@ -19912,7 +20138,7 @@
         <v>0</v>
       </c>
       <c r="AG146" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AH146" s="1" t="s">
         <v>0</v>
@@ -19929,19 +20155,19 @@
       <c r="AL146" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM146" s="1">
-        <v>1145</v>
+      <c r="AM146" s="1" t="n">
+        <v>1145.0</v>
       </c>
     </row>
     <row r="147" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
-        <v>1146</v>
-      </c>
-      <c r="B147" s="2">
-        <v>228</v>
+      <c r="A147" s="2" t="n">
+        <v>1146.0</v>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>228.0</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>41</v>
@@ -19962,7 +20188,7 @@
         <v>0</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="K147" s="1" t="s">
         <v>0</v>
@@ -20048,19 +20274,19 @@
       <c r="AL147" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM147" s="1">
-        <v>1146</v>
+      <c r="AM147" s="1" t="n">
+        <v>1146.0</v>
       </c>
     </row>
     <row r="148" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
-        <v>1147</v>
-      </c>
-      <c r="B148" s="2">
-        <v>228</v>
+      <c r="A148" s="2" t="n">
+        <v>1147.0</v>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>228.0</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>51</v>
@@ -20167,16 +20393,16 @@
       <c r="AL148" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM148" s="1">
-        <v>1147</v>
+      <c r="AM148" s="1" t="n">
+        <v>1147.0</v>
       </c>
     </row>
     <row r="149" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
-        <v>1148</v>
-      </c>
-      <c r="B149" s="2">
-        <v>229</v>
+      <c r="A149" s="2" t="n">
+        <v>1148.0</v>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>229.0</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>514</v>
@@ -20200,7 +20426,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="K149" s="1" t="s">
         <v>0</v>
@@ -20286,16 +20512,16 @@
       <c r="AL149" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM149" s="1">
-        <v>1148</v>
+      <c r="AM149" s="1" t="n">
+        <v>1148.0</v>
       </c>
     </row>
     <row r="150" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
-        <v>1149</v>
-      </c>
-      <c r="B150" s="2">
-        <v>229</v>
+      <c r="A150" s="2" t="n">
+        <v>1149.0</v>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>229.0</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>514</v>
@@ -20405,16 +20631,16 @@
       <c r="AL150" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM150" s="1">
-        <v>1149</v>
+      <c r="AM150" s="1" t="n">
+        <v>1149.0</v>
       </c>
     </row>
     <row r="151" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="2">
-        <v>1150</v>
-      </c>
-      <c r="B151" s="2">
-        <v>230</v>
+      <c r="A151" s="2" t="n">
+        <v>1150.0</v>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>230.0</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>517</v>
@@ -20524,16 +20750,16 @@
       <c r="AL151" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM151" s="1">
-        <v>1150</v>
+      <c r="AM151" s="1" t="n">
+        <v>1150.0</v>
       </c>
     </row>
     <row r="152" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="2">
-        <v>1151</v>
-      </c>
-      <c r="B152" s="2">
-        <v>230</v>
+      <c r="A152" s="2" t="n">
+        <v>1151.0</v>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>230.0</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>517</v>
@@ -20643,22 +20869,22 @@
       <c r="AL152" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM152" s="1">
-        <v>1151</v>
+      <c r="AM152" s="1" t="n">
+        <v>1151.0</v>
       </c>
     </row>
     <row r="153" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
-        <v>1152</v>
-      </c>
-      <c r="B153" s="2">
-        <v>231</v>
+      <c r="A153" s="2" t="n">
+        <v>1152.0</v>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>231.0</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>521</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>0</v>
@@ -20667,25 +20893,25 @@
         <v>0</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>43</v>
+        <v>292</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="I153" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="L153" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="N153" s="1" t="s">
         <v>0</v>
@@ -20715,16 +20941,16 @@
         <v>0</v>
       </c>
       <c r="W153" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="X153" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Y153" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="Z153" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AA153" s="1" t="s">
         <v>0</v>
@@ -20733,10 +20959,10 @@
         <v>0</v>
       </c>
       <c r="AC153" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AD153" s="1" t="s">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="AE153" s="1" t="s">
         <v>0</v>
@@ -20745,7 +20971,7 @@
         <v>0</v>
       </c>
       <c r="AG153" s="1" t="s">
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="AH153" s="1" t="s">
         <v>0</v>
@@ -20762,19 +20988,19 @@
       <c r="AL153" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM153" s="1">
-        <v>1152</v>
+      <c r="AM153" s="1" t="n">
+        <v>1152.0</v>
       </c>
     </row>
     <row r="154" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="2">
-        <v>1153</v>
-      </c>
-      <c r="B154" s="2">
-        <v>232</v>
+      <c r="A154" s="2" t="n">
+        <v>1153.0</v>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>232.0</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>41</v>
@@ -20881,40 +21107,40 @@
       <c r="AL154" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM154" s="1">
-        <v>1153</v>
+      <c r="AM154" s="1" t="n">
+        <v>1153.0</v>
       </c>
     </row>
     <row r="155" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="2">
-        <v>1154</v>
-      </c>
-      <c r="B155" s="2">
-        <v>233</v>
+      <c r="A155" s="2" t="n">
+        <v>1156.0</v>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>235.0</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>43</v>
+        <v>526</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="K155" s="1" t="s">
         <v>0</v>
@@ -20923,7 +21149,7 @@
         <v>0</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="N155" s="1" t="s">
         <v>0</v>
@@ -20968,13 +21194,13 @@
         <v>0</v>
       </c>
       <c r="AB155" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AC155" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AD155" s="1" t="s">
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="AE155" s="1" t="s">
         <v>0</v>
@@ -20983,7 +21209,7 @@
         <v>0</v>
       </c>
       <c r="AG155" s="1" t="s">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="AH155" s="1" t="s">
         <v>0</v>
@@ -21000,40 +21226,40 @@
       <c r="AL155" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM155" s="1">
-        <v>1154</v>
+      <c r="AM155" s="1" t="n">
+        <v>1156.0</v>
       </c>
     </row>
     <row r="156" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
-        <v>1155</v>
-      </c>
-      <c r="B156" s="2">
-        <v>234</v>
+      <c r="A156" s="2" t="n">
+        <v>1157.0</v>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>236.0</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>43</v>
+        <v>526</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="I156" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="K156" s="1" t="s">
         <v>0</v>
@@ -21042,7 +21268,7 @@
         <v>0</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="N156" s="1" t="s">
         <v>0</v>
@@ -21087,13 +21313,13 @@
         <v>0</v>
       </c>
       <c r="AB156" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AC156" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AD156" s="1" t="s">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="AE156" s="1" t="s">
         <v>0</v>
@@ -21102,7 +21328,7 @@
         <v>0</v>
       </c>
       <c r="AG156" s="1" t="s">
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="AH156" s="1" t="s">
         <v>0</v>
@@ -21119,19 +21345,19 @@
       <c r="AL156" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM156" s="1">
-        <v>1155</v>
+      <c r="AM156" s="1" t="n">
+        <v>1157.0</v>
       </c>
     </row>
     <row r="157" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
-        <v>1156</v>
-      </c>
-      <c r="B157" s="2">
-        <v>235</v>
+      <c r="A157" s="2" t="n">
+        <v>1158.0</v>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>237.0</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>93</v>
@@ -21212,7 +21438,7 @@
         <v>0</v>
       </c>
       <c r="AD157" s="1" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="AE157" s="1" t="s">
         <v>0</v>
@@ -21221,7 +21447,7 @@
         <v>0</v>
       </c>
       <c r="AG157" s="1" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="AH157" s="1" t="s">
         <v>0</v>
@@ -21238,745 +21464,745 @@
       <c r="AL157" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM157" s="1">
-        <v>1156</v>
+      <c r="AM157" s="1" t="n">
+        <v>1158.0</v>
       </c>
     </row>
     <row r="158" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
-        <v>1157</v>
-      </c>
-      <c r="B158" s="2">
-        <v>236</v>
+      <c r="A158" s="2" t="n">
+        <v>1159.0</v>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>238.0</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="D158" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O158" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD158" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="AE158" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="AF158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM158" s="1" t="n">
+        <v>1159.0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="n">
+        <v>1160.0</v>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM159" s="1" t="n">
+        <v>1160.0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="n">
+        <v>1161.0</v>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G158" s="1" t="s">
+      <c r="F160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G160" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="H158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB158" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD158" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AE158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG158" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="AH158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL158" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM158" s="1">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
-        <v>1158</v>
-      </c>
-      <c r="B159" s="2">
-        <v>237</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D159" s="1" t="s">
+      <c r="H160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB160" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD160" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AE160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG160" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="AH160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM160" s="1" t="n">
+        <v>1161.0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="n">
+        <v>1162.0</v>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB159" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD159" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="AE159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG159" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="AH159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL159" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM159" s="1">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
-        <v>1159</v>
-      </c>
-      <c r="B160" s="2">
-        <v>238</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="D160" s="1" t="s">
+      <c r="E161" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S161" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T161" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W161" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z161" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD161" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="AE161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG161" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="AH161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM161" s="1" t="n">
+        <v>1162.0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="n">
+        <v>1163.0</v>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM162" s="1" t="n">
+        <v>1163.0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="n">
+        <v>1164.0</v>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>242.0</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM163" s="1" t="n">
+        <v>1164.0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="n">
+        <v>1165.0</v>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E160" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G160" s="1" t="s">
+      <c r="E164" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G164" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J160" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="K160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M160" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O160" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD160" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="AE160" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="AF160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM160" s="1">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="161" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
-        <v>1160</v>
-      </c>
-      <c r="B161" s="2">
-        <v>238</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H161" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM161" s="1">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
-        <v>1161</v>
-      </c>
-      <c r="B162" s="2">
-        <v>239</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB162" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD162" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="AE162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG162" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="AH162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL162" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM162" s="1">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="163" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
-        <v>1162</v>
-      </c>
-      <c r="B163" s="2">
-        <v>240</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S163" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T163" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W163" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z163" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM163" s="1">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
-        <v>1163</v>
-      </c>
-      <c r="B164" s="2">
-        <v>241</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>44</v>
@@ -21985,7 +22211,7 @@
         <v>0</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>0</v>
+        <v>547</v>
       </c>
       <c r="K164" s="1" t="s">
         <v>0</v>
@@ -21994,7 +22220,7 @@
         <v>0</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>0</v>
+        <v>548</v>
       </c>
       <c r="N164" s="1" t="s">
         <v>0</v>
@@ -22003,13 +22229,13 @@
         <v>0</v>
       </c>
       <c r="P164" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="Q164" s="1" t="s">
         <v>0</v>
       </c>
       <c r="R164" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="S164" s="1" t="s">
         <v>0</v>
@@ -22045,13 +22271,13 @@
         <v>0</v>
       </c>
       <c r="AD164" s="1" t="s">
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="AE164" s="1" t="s">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="AF164" s="1" t="s">
-        <v>0</v>
+        <v>551</v>
       </c>
       <c r="AG164" s="1" t="s">
         <v>0</v>
@@ -22071,31 +22297,31 @@
       <c r="AL164" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM164" s="1">
-        <v>1163</v>
+      <c r="AM164" s="1" t="n">
+        <v>1165.0</v>
       </c>
     </row>
     <row r="165" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
-        <v>1164</v>
-      </c>
-      <c r="B165" s="2">
-        <v>242</v>
+      <c r="A165" s="2" t="n">
+        <v>1166.0</v>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>244.0</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>44</v>
@@ -22104,7 +22330,7 @@
         <v>0</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="K165" s="1" t="s">
         <v>0</v>
@@ -22113,7 +22339,7 @@
         <v>0</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>0</v>
+        <v>548</v>
       </c>
       <c r="N165" s="1" t="s">
         <v>0</v>
@@ -22122,13 +22348,13 @@
         <v>0</v>
       </c>
       <c r="P165" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="Q165" s="1" t="s">
         <v>0</v>
       </c>
       <c r="R165" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="S165" s="1" t="s">
         <v>0</v>
@@ -22164,13 +22390,13 @@
         <v>0</v>
       </c>
       <c r="AD165" s="1" t="s">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="AE165" s="1" t="s">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="AF165" s="1" t="s">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="AG165" s="1" t="s">
         <v>0</v>
@@ -22190,665 +22416,1913 @@
       <c r="AL165" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AM165" s="1">
-        <v>1164</v>
+      <c r="AM165" s="1" t="n">
+        <v>1166.0</v>
       </c>
     </row>
     <row r="166" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
-      <c r="K166" s="1"/>
-      <c r="L166" s="1"/>
-      <c r="M166" s="1"/>
-      <c r="N166" s="1"/>
-      <c r="O166" s="1"/>
-      <c r="P166" s="1"/>
-      <c r="Q166" s="1"/>
-      <c r="R166" s="1"/>
-      <c r="S166" s="1"/>
-      <c r="T166" s="1"/>
-      <c r="U166" s="1"/>
-      <c r="V166" s="1"/>
-      <c r="W166" s="1"/>
-      <c r="X166" s="1"/>
-      <c r="Y166" s="1"/>
-      <c r="Z166" s="1"/>
-      <c r="AA166" s="1"/>
-      <c r="AB166" s="1"/>
-      <c r="AC166" s="1"/>
-      <c r="AD166" s="1"/>
-      <c r="AE166" s="1"/>
-      <c r="AF166" s="1"/>
-      <c r="AG166" s="1"/>
-      <c r="AH166" s="1"/>
-      <c r="AI166" s="1"/>
-      <c r="AJ166" s="1"/>
-      <c r="AK166" s="1"/>
-      <c r="AL166" s="1"/>
-      <c r="AM166" s="1"/>
+      <c r="A166" s="2" t="n">
+        <v>1167.0</v>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P166" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R166" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD166" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="AE166" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="AF166" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="AG166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM166" s="1" t="n">
+        <v>1167.0</v>
+      </c>
     </row>
     <row r="167" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
-      <c r="K167" s="1"/>
-      <c r="L167" s="1"/>
-      <c r="M167" s="1"/>
-      <c r="N167" s="1"/>
-      <c r="O167" s="1"/>
-      <c r="P167" s="1"/>
-      <c r="Q167" s="1"/>
-      <c r="R167" s="1"/>
-      <c r="S167" s="1"/>
-      <c r="T167" s="1"/>
-      <c r="U167" s="1"/>
-      <c r="V167" s="1"/>
-      <c r="W167" s="1"/>
-      <c r="X167" s="1"/>
-      <c r="Y167" s="1"/>
-      <c r="Z167" s="1"/>
-      <c r="AA167" s="1"/>
-      <c r="AB167" s="1"/>
-      <c r="AC167" s="1"/>
-      <c r="AD167" s="1"/>
-      <c r="AE167" s="1"/>
-      <c r="AF167" s="1"/>
-      <c r="AG167" s="1"/>
-      <c r="AH167" s="1"/>
-      <c r="AI167" s="1"/>
-      <c r="AJ167" s="1"/>
-      <c r="AK167" s="1"/>
-      <c r="AL167" s="1"/>
-      <c r="AM167" s="1"/>
+      <c r="A167" s="2" t="n">
+        <v>1168.0</v>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M167" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P167" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R167" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD167" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="AE167" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="AF167" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="AG167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM167" s="1" t="n">
+        <v>1168.0</v>
+      </c>
     </row>
     <row r="168" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
-      <c r="K168" s="1"/>
-      <c r="L168" s="1"/>
-      <c r="M168" s="1"/>
-      <c r="N168" s="1"/>
-      <c r="O168" s="1"/>
-      <c r="P168" s="1"/>
-      <c r="Q168" s="1"/>
-      <c r="R168" s="1"/>
-      <c r="S168" s="1"/>
-      <c r="T168" s="1"/>
-      <c r="U168" s="1"/>
-      <c r="V168" s="1"/>
-      <c r="W168" s="1"/>
-      <c r="X168" s="1"/>
-      <c r="Y168" s="1"/>
-      <c r="Z168" s="1"/>
-      <c r="AA168" s="1"/>
-      <c r="AB168" s="1"/>
-      <c r="AC168" s="1"/>
-      <c r="AD168" s="1"/>
-      <c r="AE168" s="1"/>
-      <c r="AF168" s="1"/>
-      <c r="AG168" s="1"/>
-      <c r="AH168" s="1"/>
-      <c r="AI168" s="1"/>
-      <c r="AJ168" s="1"/>
-      <c r="AK168" s="1"/>
-      <c r="AL168" s="1"/>
-      <c r="AM168" s="1"/>
+      <c r="A168" s="2" t="n">
+        <v>1169.0</v>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M168" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P168" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R168" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD168" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="AE168" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="AF168" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="AG168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM168" s="1" t="n">
+        <v>1169.0</v>
+      </c>
     </row>
     <row r="169" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
-      <c r="K169" s="1"/>
-      <c r="L169" s="1"/>
-      <c r="M169" s="1"/>
-      <c r="N169" s="1"/>
-      <c r="O169" s="1"/>
-      <c r="P169" s="1"/>
-      <c r="Q169" s="1"/>
-      <c r="R169" s="1"/>
-      <c r="S169" s="1"/>
-      <c r="T169" s="1"/>
-      <c r="U169" s="1"/>
-      <c r="V169" s="1"/>
-      <c r="W169" s="1"/>
-      <c r="X169" s="1"/>
-      <c r="Y169" s="1"/>
-      <c r="Z169" s="1"/>
-      <c r="AA169" s="1"/>
-      <c r="AB169" s="1"/>
-      <c r="AC169" s="1"/>
-      <c r="AD169" s="1"/>
-      <c r="AE169" s="1"/>
-      <c r="AF169" s="1"/>
-      <c r="AG169" s="1"/>
-      <c r="AH169" s="1"/>
-      <c r="AI169" s="1"/>
-      <c r="AJ169" s="1"/>
-      <c r="AK169" s="1"/>
-      <c r="AL169" s="1"/>
-      <c r="AM169" s="1"/>
+      <c r="A169" s="2" t="n">
+        <v>1170.0</v>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M169" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P169" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R169" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD169" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="AE169" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="AF169" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="AG169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM169" s="1" t="n">
+        <v>1170.0</v>
+      </c>
     </row>
     <row r="170" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
-      <c r="J170" s="1"/>
-      <c r="K170" s="1"/>
-      <c r="L170" s="1"/>
-      <c r="M170" s="1"/>
-      <c r="N170" s="1"/>
-      <c r="O170" s="1"/>
-      <c r="P170" s="1"/>
-      <c r="Q170" s="1"/>
-      <c r="R170" s="1"/>
-      <c r="S170" s="1"/>
-      <c r="T170" s="1"/>
-      <c r="U170" s="1"/>
-      <c r="V170" s="1"/>
-      <c r="W170" s="1"/>
-      <c r="X170" s="1"/>
-      <c r="Y170" s="1"/>
-      <c r="Z170" s="1"/>
-      <c r="AA170" s="1"/>
-      <c r="AB170" s="1"/>
-      <c r="AC170" s="1"/>
-      <c r="AD170" s="1"/>
-      <c r="AE170" s="1"/>
-      <c r="AF170" s="1"/>
-      <c r="AG170" s="1"/>
-      <c r="AH170" s="1"/>
-      <c r="AI170" s="1"/>
-      <c r="AJ170" s="1"/>
-      <c r="AK170" s="1"/>
-      <c r="AL170" s="1"/>
-      <c r="AM170" s="1"/>
+      <c r="A170" s="2" t="n">
+        <v>1171.0</v>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M170" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P170" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R170" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD170" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="AE170" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="AF170" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="AG170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM170" s="1" t="n">
+        <v>1171.0</v>
+      </c>
     </row>
     <row r="171" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
-      <c r="J171" s="1"/>
-      <c r="K171" s="1"/>
-      <c r="L171" s="1"/>
-      <c r="M171" s="1"/>
-      <c r="N171" s="1"/>
-      <c r="O171" s="1"/>
-      <c r="P171" s="1"/>
-      <c r="Q171" s="1"/>
-      <c r="R171" s="1"/>
-      <c r="S171" s="1"/>
-      <c r="T171" s="1"/>
-      <c r="U171" s="1"/>
-      <c r="V171" s="1"/>
-      <c r="W171" s="1"/>
-      <c r="X171" s="1"/>
-      <c r="Y171" s="1"/>
-      <c r="Z171" s="1"/>
-      <c r="AA171" s="1"/>
-      <c r="AB171" s="1"/>
-      <c r="AC171" s="1"/>
-      <c r="AD171" s="1"/>
-      <c r="AE171" s="1"/>
-      <c r="AF171" s="1"/>
-      <c r="AG171" s="1"/>
-      <c r="AH171" s="1"/>
-      <c r="AI171" s="1"/>
-      <c r="AJ171" s="1"/>
-      <c r="AK171" s="1"/>
-      <c r="AL171" s="1"/>
-      <c r="AM171" s="1"/>
+      <c r="A171" s="2" t="n">
+        <v>1172.0</v>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P171" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R171" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD171" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="AE171" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="AF171" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="AG171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM171" s="1" t="n">
+        <v>1172.0</v>
+      </c>
     </row>
     <row r="172" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
-      <c r="J172" s="1"/>
-      <c r="K172" s="1"/>
-      <c r="L172" s="1"/>
-      <c r="M172" s="1"/>
-      <c r="N172" s="1"/>
-      <c r="O172" s="1"/>
-      <c r="P172" s="1"/>
-      <c r="Q172" s="1"/>
-      <c r="R172" s="1"/>
-      <c r="S172" s="1"/>
-      <c r="T172" s="1"/>
-      <c r="U172" s="1"/>
-      <c r="V172" s="1"/>
-      <c r="W172" s="1"/>
-      <c r="X172" s="1"/>
-      <c r="Y172" s="1"/>
-      <c r="Z172" s="1"/>
-      <c r="AA172" s="1"/>
-      <c r="AB172" s="1"/>
-      <c r="AC172" s="1"/>
-      <c r="AD172" s="1"/>
-      <c r="AE172" s="1"/>
-      <c r="AF172" s="1"/>
-      <c r="AG172" s="1"/>
-      <c r="AH172" s="1"/>
-      <c r="AI172" s="1"/>
-      <c r="AJ172" s="1"/>
-      <c r="AK172" s="1"/>
-      <c r="AL172" s="1"/>
-      <c r="AM172" s="1"/>
+      <c r="A172" s="2" t="n">
+        <v>1173.0</v>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M172" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P172" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R172" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD172" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="AE172" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="AF172" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="AG172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM172" s="1" t="n">
+        <v>1173.0</v>
+      </c>
     </row>
     <row r="173" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
-      <c r="H173" s="1"/>
-      <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
-      <c r="K173" s="1"/>
-      <c r="L173" s="1"/>
-      <c r="M173" s="1"/>
-      <c r="N173" s="1"/>
-      <c r="O173" s="1"/>
-      <c r="P173" s="1"/>
-      <c r="Q173" s="1"/>
-      <c r="R173" s="1"/>
-      <c r="S173" s="1"/>
-      <c r="T173" s="1"/>
-      <c r="U173" s="1"/>
-      <c r="V173" s="1"/>
-      <c r="W173" s="1"/>
-      <c r="X173" s="1"/>
-      <c r="Y173" s="1"/>
-      <c r="Z173" s="1"/>
-      <c r="AA173" s="1"/>
-      <c r="AB173" s="1"/>
-      <c r="AC173" s="1"/>
-      <c r="AD173" s="1"/>
-      <c r="AE173" s="1"/>
-      <c r="AF173" s="1"/>
-      <c r="AG173" s="1"/>
-      <c r="AH173" s="1"/>
-      <c r="AI173" s="1"/>
-      <c r="AJ173" s="1"/>
-      <c r="AK173" s="1"/>
-      <c r="AL173" s="1"/>
-      <c r="AM173" s="1"/>
+      <c r="A173" s="2" t="n">
+        <v>1174.0</v>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M173" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P173" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R173" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD173" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="AE173" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="AF173" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="AG173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM173" s="1" t="n">
+        <v>1174.0</v>
+      </c>
     </row>
     <row r="174" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
-      <c r="I174" s="1"/>
-      <c r="J174" s="1"/>
-      <c r="K174" s="1"/>
-      <c r="L174" s="1"/>
-      <c r="M174" s="1"/>
-      <c r="N174" s="1"/>
-      <c r="O174" s="1"/>
-      <c r="P174" s="1"/>
-      <c r="Q174" s="1"/>
-      <c r="R174" s="1"/>
-      <c r="S174" s="1"/>
-      <c r="T174" s="1"/>
-      <c r="U174" s="1"/>
-      <c r="V174" s="1"/>
-      <c r="W174" s="1"/>
-      <c r="X174" s="1"/>
-      <c r="Y174" s="1"/>
-      <c r="Z174" s="1"/>
-      <c r="AA174" s="1"/>
-      <c r="AB174" s="1"/>
-      <c r="AC174" s="1"/>
-      <c r="AD174" s="1"/>
-      <c r="AE174" s="1"/>
-      <c r="AF174" s="1"/>
-      <c r="AG174" s="1"/>
-      <c r="AH174" s="1"/>
-      <c r="AI174" s="1"/>
-      <c r="AJ174" s="1"/>
-      <c r="AK174" s="1"/>
-      <c r="AL174" s="1"/>
-      <c r="AM174" s="1"/>
+      <c r="A174" s="2" t="n">
+        <v>1175.0</v>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M174" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P174" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R174" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD174" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="AE174" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="AF174" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="AG174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM174" s="1" t="n">
+        <v>1175.0</v>
+      </c>
     </row>
     <row r="175" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
-      <c r="K175" s="1"/>
-      <c r="L175" s="1"/>
-      <c r="M175" s="1"/>
-      <c r="N175" s="1"/>
-      <c r="O175" s="1"/>
-      <c r="P175" s="1"/>
-      <c r="Q175" s="1"/>
-      <c r="R175" s="1"/>
-      <c r="S175" s="1"/>
-      <c r="T175" s="1"/>
-      <c r="U175" s="1"/>
-      <c r="V175" s="1"/>
-      <c r="W175" s="1"/>
-      <c r="X175" s="1"/>
-      <c r="Y175" s="1"/>
-      <c r="Z175" s="1"/>
-      <c r="AA175" s="1"/>
-      <c r="AB175" s="1"/>
-      <c r="AC175" s="1"/>
-      <c r="AD175" s="1"/>
-      <c r="AE175" s="1"/>
-      <c r="AF175" s="1"/>
-      <c r="AG175" s="1"/>
-      <c r="AH175" s="1"/>
-      <c r="AI175" s="1"/>
-      <c r="AJ175" s="1"/>
-      <c r="AK175" s="1"/>
-      <c r="AL175" s="1"/>
-      <c r="AM175" s="1"/>
+      <c r="A175" s="2" t="n">
+        <v>1176.0</v>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>254.0</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M175" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P175" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R175" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD175" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="AE175" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="AF175" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AG175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM175" s="1" t="n">
+        <v>1176.0</v>
+      </c>
     </row>
     <row r="176" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
-      <c r="K176" s="1"/>
-      <c r="L176" s="1"/>
-      <c r="M176" s="1"/>
-      <c r="N176" s="1"/>
-      <c r="O176" s="1"/>
-      <c r="P176" s="1"/>
-      <c r="Q176" s="1"/>
-      <c r="R176" s="1"/>
-      <c r="S176" s="1"/>
-      <c r="T176" s="1"/>
-      <c r="U176" s="1"/>
-      <c r="V176" s="1"/>
-      <c r="W176" s="1"/>
-      <c r="X176" s="1"/>
-      <c r="Y176" s="1"/>
-      <c r="Z176" s="1"/>
-      <c r="AA176" s="1"/>
-      <c r="AB176" s="1"/>
-      <c r="AC176" s="1"/>
-      <c r="AD176" s="1"/>
-      <c r="AE176" s="1"/>
-      <c r="AF176" s="1"/>
-      <c r="AG176" s="1"/>
-      <c r="AH176" s="1"/>
-      <c r="AI176" s="1"/>
-      <c r="AJ176" s="1"/>
-      <c r="AK176" s="1"/>
-      <c r="AL176" s="1"/>
-      <c r="AM176" s="1"/>
+      <c r="A176" s="2" t="n">
+        <v>1177.0</v>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M176" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P176" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R176" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE176" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="AF176" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="AG176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM176" s="1" t="n">
+        <v>1177.0</v>
+      </c>
     </row>
     <row r="177" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
-      <c r="K177" s="1"/>
-      <c r="L177" s="1"/>
-      <c r="M177" s="1"/>
-      <c r="N177" s="1"/>
-      <c r="O177" s="1"/>
-      <c r="P177" s="1"/>
-      <c r="Q177" s="1"/>
-      <c r="R177" s="1"/>
-      <c r="S177" s="1"/>
-      <c r="T177" s="1"/>
-      <c r="U177" s="1"/>
-      <c r="V177" s="1"/>
-      <c r="W177" s="1"/>
-      <c r="X177" s="1"/>
-      <c r="Y177" s="1"/>
-      <c r="Z177" s="1"/>
-      <c r="AA177" s="1"/>
-      <c r="AB177" s="1"/>
-      <c r="AC177" s="1"/>
-      <c r="AD177" s="1"/>
-      <c r="AE177" s="1"/>
-      <c r="AF177" s="1"/>
-      <c r="AG177" s="1"/>
-      <c r="AH177" s="1"/>
-      <c r="AI177" s="1"/>
-      <c r="AJ177" s="1"/>
-      <c r="AK177" s="1"/>
-      <c r="AL177" s="1"/>
-      <c r="AM177" s="1"/>
+      <c r="A177" s="2" t="n">
+        <v>1178.0</v>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M177" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P177" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R177" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD177" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="AE177" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="AF177" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="AG177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM177" s="1" t="n">
+        <v>1178.0</v>
+      </c>
     </row>
     <row r="178" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
-      <c r="K178" s="1"/>
-      <c r="L178" s="1"/>
-      <c r="M178" s="1"/>
-      <c r="N178" s="1"/>
-      <c r="O178" s="1"/>
-      <c r="P178" s="1"/>
-      <c r="Q178" s="1"/>
-      <c r="R178" s="1"/>
-      <c r="S178" s="1"/>
-      <c r="T178" s="1"/>
-      <c r="U178" s="1"/>
-      <c r="V178" s="1"/>
-      <c r="W178" s="1"/>
-      <c r="X178" s="1"/>
-      <c r="Y178" s="1"/>
-      <c r="Z178" s="1"/>
-      <c r="AA178" s="1"/>
-      <c r="AB178" s="1"/>
-      <c r="AC178" s="1"/>
-      <c r="AD178" s="1"/>
-      <c r="AE178" s="1"/>
-      <c r="AF178" s="1"/>
-      <c r="AG178" s="1"/>
-      <c r="AH178" s="1"/>
-      <c r="AI178" s="1"/>
-      <c r="AJ178" s="1"/>
-      <c r="AK178" s="1"/>
-      <c r="AL178" s="1"/>
-      <c r="AM178" s="1"/>
+      <c r="A178" s="2" t="n">
+        <v>1179.0</v>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>257.0</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M178" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P178" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R178" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD178" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="AE178" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="AF178" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="AG178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM178" s="1" t="n">
+        <v>1179.0</v>
+      </c>
     </row>
     <row r="179" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-      <c r="K179" s="1"/>
-      <c r="L179" s="1"/>
-      <c r="M179" s="1"/>
-      <c r="N179" s="1"/>
-      <c r="O179" s="1"/>
-      <c r="P179" s="1"/>
-      <c r="Q179" s="1"/>
-      <c r="R179" s="1"/>
-      <c r="S179" s="1"/>
-      <c r="T179" s="1"/>
-      <c r="U179" s="1"/>
-      <c r="V179" s="1"/>
-      <c r="W179" s="1"/>
-      <c r="X179" s="1"/>
-      <c r="Y179" s="1"/>
-      <c r="Z179" s="1"/>
-      <c r="AA179" s="1"/>
-      <c r="AB179" s="1"/>
-      <c r="AC179" s="1"/>
-      <c r="AD179" s="1"/>
-      <c r="AE179" s="1"/>
-      <c r="AF179" s="1"/>
-      <c r="AG179" s="1"/>
-      <c r="AH179" s="1"/>
-      <c r="AI179" s="1"/>
-      <c r="AJ179" s="1"/>
-      <c r="AK179" s="1"/>
-      <c r="AL179" s="1"/>
-      <c r="AM179" s="1"/>
+      <c r="A179" s="2" t="n">
+        <v>1180.0</v>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M179" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P179" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R179" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD179" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="AE179" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="AF179" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="AG179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM179" s="1" t="n">
+        <v>1180.0</v>
+      </c>
     </row>
     <row r="180" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
-      <c r="K180" s="1"/>
-      <c r="L180" s="1"/>
-      <c r="M180" s="1"/>
-      <c r="N180" s="1"/>
-      <c r="O180" s="1"/>
-      <c r="P180" s="1"/>
-      <c r="Q180" s="1"/>
-      <c r="R180" s="1"/>
-      <c r="S180" s="1"/>
-      <c r="T180" s="1"/>
-      <c r="U180" s="1"/>
-      <c r="V180" s="1"/>
-      <c r="W180" s="1"/>
-      <c r="X180" s="1"/>
-      <c r="Y180" s="1"/>
-      <c r="Z180" s="1"/>
-      <c r="AA180" s="1"/>
-      <c r="AB180" s="1"/>
-      <c r="AC180" s="1"/>
-      <c r="AD180" s="1"/>
-      <c r="AE180" s="1"/>
-      <c r="AF180" s="1"/>
-      <c r="AG180" s="1"/>
-      <c r="AH180" s="1"/>
-      <c r="AI180" s="1"/>
-      <c r="AJ180" s="1"/>
-      <c r="AK180" s="1"/>
-      <c r="AL180" s="1"/>
-      <c r="AM180" s="1"/>
+      <c r="A180" s="2" t="n">
+        <v>1181.0</v>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>259.0</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M180" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P180" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R180" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD180" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="AE180" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="AF180" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="AG180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM180" s="1" t="n">
+        <v>1181.0</v>
+      </c>
     </row>
     <row r="181" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
-      <c r="K181" s="1"/>
-      <c r="L181" s="1"/>
-      <c r="M181" s="1"/>
-      <c r="N181" s="1"/>
-      <c r="O181" s="1"/>
-      <c r="P181" s="1"/>
-      <c r="Q181" s="1"/>
-      <c r="R181" s="1"/>
-      <c r="S181" s="1"/>
-      <c r="T181" s="1"/>
-      <c r="U181" s="1"/>
-      <c r="V181" s="1"/>
-      <c r="W181" s="1"/>
-      <c r="X181" s="1"/>
-      <c r="Y181" s="1"/>
-      <c r="Z181" s="1"/>
-      <c r="AA181" s="1"/>
-      <c r="AB181" s="1"/>
-      <c r="AC181" s="1"/>
-      <c r="AD181" s="1"/>
-      <c r="AE181" s="1"/>
-      <c r="AF181" s="1"/>
-      <c r="AG181" s="1"/>
-      <c r="AH181" s="1"/>
-      <c r="AI181" s="1"/>
-      <c r="AJ181" s="1"/>
-      <c r="AK181" s="1"/>
-      <c r="AL181" s="1"/>
-      <c r="AM181" s="1"/>
+      <c r="A181" s="2" t="n">
+        <v>1182.0</v>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>260.0</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M181" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P181" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R181" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD181" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="AE181" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="AF181" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="AG181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM181" s="1" t="n">
+        <v>1182.0</v>
+      </c>
     </row>
     <row r="182" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
@@ -29779,6 +31253,47 @@
       <c r="AL350" s="1"/>
       <c r="AM350" s="1"/>
     </row>
+    <row r="351" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="2"/>
+      <c r="B351" s="2"/>
+      <c r="C351" s="1"/>
+      <c r="D351" s="1"/>
+      <c r="E351" s="1"/>
+      <c r="F351" s="1"/>
+      <c r="G351" s="1"/>
+      <c r="H351" s="1"/>
+      <c r="I351" s="1"/>
+      <c r="J351" s="1"/>
+      <c r="K351" s="1"/>
+      <c r="L351" s="1"/>
+      <c r="M351" s="1"/>
+      <c r="N351" s="1"/>
+      <c r="O351" s="1"/>
+      <c r="P351" s="1"/>
+      <c r="Q351" s="1"/>
+      <c r="R351" s="1"/>
+      <c r="S351" s="1"/>
+      <c r="T351" s="1"/>
+      <c r="U351" s="1"/>
+      <c r="V351" s="1"/>
+      <c r="W351" s="1"/>
+      <c r="X351" s="1"/>
+      <c r="Y351" s="1"/>
+      <c r="Z351" s="1"/>
+      <c r="AA351" s="1"/>
+      <c r="AB351" s="1"/>
+      <c r="AC351" s="1"/>
+      <c r="AD351" s="1"/>
+      <c r="AE351" s="1"/>
+      <c r="AF351" s="1"/>
+      <c r="AG351" s="1"/>
+      <c r="AH351" s="1"/>
+      <c r="AI351" s="1"/>
+      <c r="AJ351" s="1"/>
+      <c r="AK351" s="1"/>
+      <c r="AL351" s="1"/>
+      <c r="AM351" s="1"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AM1">
     <cfRule type="dataBar" priority="5">
